--- a/user-data/poor-people/poor-people.xlsx
+++ b/user-data/poor-people/poor-people.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="344">
   <si>
     <t>id</t>
   </si>
@@ -1021,9 +1021,6 @@
     <t>Source: Development Initiatives calculations based on World Bank data bank and World Development Indicators</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1412,52 +1409,52 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17">
@@ -1473,11 +1470,6 @@
     <row r="19">
       <c r="A19" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/poor-people/poor-people.xlsx
+++ b/user-data/poor-people/poor-people.xlsx
@@ -8,13 +8,14 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-original-value" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
   <si>
     <t>id</t>
   </si>
@@ -1033,7 +1034,10 @@
     <t>This data contains interpolated values. The interpolated values are typically contained in a column called 'value,' while the uninterpolated values are stored in 'original-value.'</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
+  </si>
+  <si>
+    <t>On the 'Data-wide-original-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'original-value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
@@ -1444,7 +1448,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15">
@@ -1454,22 +1458,32 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
         <v>343</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -62421,4 +62435,6626 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K1" t="s">
+        <v>315</v>
+      </c>
+      <c r="L1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N1" t="s">
+        <v>318</v>
+      </c>
+      <c r="O1" t="s">
+        <v>319</v>
+      </c>
+      <c r="P1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>321</v>
+      </c>
+      <c r="R1" t="s">
+        <v>322</v>
+      </c>
+      <c r="S1" t="s">
+        <v>323</v>
+      </c>
+      <c r="T1" t="s">
+        <v>324</v>
+      </c>
+      <c r="U1" t="s">
+        <v>325</v>
+      </c>
+      <c r="V1" t="s">
+        <v>326</v>
+      </c>
+      <c r="W1" t="s">
+        <v>327</v>
+      </c>
+      <c r="X1" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" t="n">
+        <v>6336.066</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3" t="n">
+        <v>22275.417</v>
+      </c>
+      <c r="P3"/>
+      <c r="Q3" t="n">
+        <v>15977.269</v>
+      </c>
+      <c r="R3" t="n">
+        <v>13167.986</v>
+      </c>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3" t="n">
+        <v>5825.118</v>
+      </c>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3" t="n">
+        <v>12887.733</v>
+      </c>
+      <c r="Z3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4" t="n">
+        <v>1870326.539</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5" t="n">
+        <v>7562629.483</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5" t="n">
+        <v>8208488.105</v>
+      </c>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="n">
+        <v>320829.382</v>
+      </c>
+      <c r="E7" t="n">
+        <v>593318.213</v>
+      </c>
+      <c r="F7" t="n">
+        <v>696219.914</v>
+      </c>
+      <c r="G7" t="n">
+        <v>663907.32</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1348043.602</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1505775.789</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1345542.331</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1440762.746</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1533611.436</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1867295.19</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3075052.283</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4733545.161</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3417336.99</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2409622.199</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1785530.855</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1465983.505</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1183873.846</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1087124.674</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1072633.579</v>
+      </c>
+      <c r="W7" t="n">
+        <v>698474.075</v>
+      </c>
+      <c r="X7" t="n">
+        <v>574275.206</v>
+      </c>
+      <c r="Y7"/>
+      <c r="Z7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8" t="n">
+        <v>555349.375</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8" t="n">
+        <v>518524.232</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8" t="n">
+        <v>576190.468</v>
+      </c>
+      <c r="O8" t="n">
+        <v>441815.29</v>
+      </c>
+      <c r="P8" t="n">
+        <v>324248.218</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>229949.552</v>
+      </c>
+      <c r="R8" t="n">
+        <v>127229.497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>95192.279</v>
+      </c>
+      <c r="T8" t="n">
+        <v>100759.023</v>
+      </c>
+      <c r="U8" t="n">
+        <v>41982.581</v>
+      </c>
+      <c r="V8" t="n">
+        <v>46303.202</v>
+      </c>
+      <c r="W8" t="n">
+        <v>74087.4</v>
+      </c>
+      <c r="X8" t="n">
+        <v>72620.94</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>51958.918</v>
+      </c>
+      <c r="Z8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9" t="n">
+        <v>1938925.5</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9" t="n">
+        <v>508572.24</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1634.39</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3293.64</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9" t="n">
+        <v>27166.54</v>
+      </c>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10" t="n">
+        <v>78949025.73</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10" t="n">
+        <v>74554385.75</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10" t="n">
+        <v>77563354.96</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10" t="n">
+        <v>72240325.35</v>
+      </c>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10" t="n">
+        <v>65361767.94</v>
+      </c>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" t="n">
+        <v>2047.8</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11" t="n">
+        <v>36698.4</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11" t="n">
+        <v>84579.6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>38133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>26013</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11913.6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>46365.5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>48985</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5838</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5797.8</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4802</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>950.7</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11"/>
+      <c r="Z11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12" t="n">
+        <v>18036.378</v>
+      </c>
+      <c r="G12" t="n">
+        <v>18069.676</v>
+      </c>
+      <c r="H12" t="n">
+        <v>29036.769</v>
+      </c>
+      <c r="I12" t="n">
+        <v>20515.425</v>
+      </c>
+      <c r="J12" t="n">
+        <v>27201.258</v>
+      </c>
+      <c r="K12" t="n">
+        <v>25456.887</v>
+      </c>
+      <c r="L12" t="n">
+        <v>28310.106</v>
+      </c>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13" t="n">
+        <v>3628166.817</v>
+      </c>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13" t="n">
+        <v>5187167.302</v>
+      </c>
+      <c r="Z13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14" t="n">
+        <v>147685.367</v>
+      </c>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14" t="n">
+        <v>69431.103</v>
+      </c>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14" t="n">
+        <v>17655.364</v>
+      </c>
+      <c r="Z14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15" t="n">
+        <v>364532.966</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15" t="n">
+        <v>620612.6</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15" t="n">
+        <v>1354752.866</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15" t="n">
+        <v>1940785.546</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2282679.318</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1849111.778</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1943768.33</v>
+      </c>
+      <c r="P15"/>
+      <c r="Q15" t="n">
+        <v>1074031.609</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1712847.218</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1509458.847</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1179559.986</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1030613.47</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1066296.42</v>
+      </c>
+      <c r="W15"/>
+      <c r="X15" t="n">
+        <v>719613.817</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>837603.543</v>
+      </c>
+      <c r="Z15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16" t="n">
+        <v>10862.188</v>
+      </c>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16" t="n">
+        <v>3886.723</v>
+      </c>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16" t="n">
+        <v>1547.466</v>
+      </c>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17" t="n">
+        <v>482461.34</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17" t="n">
+        <v>446421.847</v>
+      </c>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17" t="n">
+        <v>261724.982</v>
+      </c>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="n">
+        <v>24287925.74</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" t="n">
+        <v>25817863.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>24917666.49</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18" t="n">
+        <v>16075758.03</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18428390.62</v>
+      </c>
+      <c r="J18" t="n">
+        <v>18194874.81</v>
+      </c>
+      <c r="K18" t="n">
+        <v>16235450.84</v>
+      </c>
+      <c r="L18" t="n">
+        <v>16977027.93</v>
+      </c>
+      <c r="M18"/>
+      <c r="N18" t="n">
+        <v>18050756.91</v>
+      </c>
+      <c r="O18" t="n">
+        <v>15912227.22</v>
+      </c>
+      <c r="P18" t="n">
+        <v>17484633.89</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>14978437.04</v>
+      </c>
+      <c r="R18" t="n">
+        <v>13365024.54</v>
+      </c>
+      <c r="S18" t="n">
+        <v>11156364.88</v>
+      </c>
+      <c r="T18" t="n">
+        <v>11095823.4</v>
+      </c>
+      <c r="U18" t="n">
+        <v>9338983.113</v>
+      </c>
+      <c r="V18" t="n">
+        <v>9132771.518</v>
+      </c>
+      <c r="W18"/>
+      <c r="X18" t="n">
+        <v>8921161.57</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>7449600.713</v>
+      </c>
+      <c r="Z18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19" t="n">
+        <v>18575.9</v>
+      </c>
+      <c r="H19" t="n">
+        <v>68929.749</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19" t="n">
+        <v>26598.618</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19" t="n">
+        <v>170029.978</v>
+      </c>
+      <c r="O19"/>
+      <c r="P19" t="n">
+        <v>48506.053</v>
+      </c>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19" t="n">
+        <v>19617.879</v>
+      </c>
+      <c r="U19" t="n">
+        <v>54695.695</v>
+      </c>
+      <c r="V19"/>
+      <c r="W19" t="n">
+        <v>121287.824</v>
+      </c>
+      <c r="X19" t="n">
+        <v>139618.232</v>
+      </c>
+      <c r="Y19"/>
+      <c r="Z19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20" t="n">
+        <v>6986464.256</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20" t="n">
+        <v>7680775.551</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20" t="n">
+        <v>6190293.054</v>
+      </c>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20" t="n">
+        <v>6711222.328</v>
+      </c>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" t="n">
+        <v>4955568.79</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21" t="n">
+        <v>5572722.91</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21" t="n">
+        <v>6540225.243</v>
+      </c>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" t="n">
+        <v>3540458.586</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22" t="n">
+        <v>2998455.987</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22" t="n">
+        <v>4640202.882</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22" t="n">
+        <v>4945801.144</v>
+      </c>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22" t="n">
+        <v>6398319.418</v>
+      </c>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23" t="n">
+        <v>4641469.26</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23" t="n">
+        <v>4309053.792</v>
+      </c>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23" t="n">
+        <v>4236914.162</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2912174.21</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1828848.293</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1616054.738</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1467889.131</v>
+      </c>
+      <c r="Y23"/>
+      <c r="Z23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24" t="n">
+        <v>6790528.911</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24" t="n">
+        <v>4064719.384</v>
+      </c>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24" t="n">
+        <v>5272868.344</v>
+      </c>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25" t="n">
+        <v>96511.228</v>
+      </c>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25" t="n">
+        <v>66494.117</v>
+      </c>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26" t="n">
+        <v>2536731.054</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26" t="n">
+        <v>2390841.755</v>
+      </c>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26" t="n">
+        <v>2629502.1</v>
+      </c>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27" t="n">
+        <v>5767378.34</v>
+      </c>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27" t="n">
+        <v>4411629.512</v>
+      </c>
+      <c r="Y27"/>
+      <c r="Z27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="n">
+        <v>648803.963</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28" t="n">
+        <v>375557.689</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28" t="n">
+        <v>433244.143</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28" t="n">
+        <v>322571.106</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28" t="n">
+        <v>349679.889</v>
+      </c>
+      <c r="L28"/>
+      <c r="M28" t="n">
+        <v>333815.083</v>
+      </c>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28" t="n">
+        <v>276724.883</v>
+      </c>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28" t="n">
+        <v>176598.471</v>
+      </c>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28" t="n">
+        <v>217494.131</v>
+      </c>
+      <c r="W28"/>
+      <c r="X28" t="n">
+        <v>143660.127</v>
+      </c>
+      <c r="Y28"/>
+      <c r="Z28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="n">
+        <v>689397850.5</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29" t="n">
+        <v>646374340</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29" t="n">
+        <v>455241945</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29" t="n">
+        <v>450984600</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29" t="n">
+        <v>359280240</v>
+      </c>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29" t="n">
+        <v>205596644</v>
+      </c>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29" t="n">
+        <v>163462427</v>
+      </c>
+      <c r="V29"/>
+      <c r="W29" t="n">
+        <v>122935089.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>84142538</v>
+      </c>
+      <c r="Y29"/>
+      <c r="Z29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>2777705.995</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2176853.956</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30" t="n">
+        <v>4840696.12</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30" t="n">
+        <v>6348079.807</v>
+      </c>
+      <c r="M30" t="n">
+        <v>7121790.144</v>
+      </c>
+      <c r="N30" t="n">
+        <v>7243774.533</v>
+      </c>
+      <c r="O30" t="n">
+        <v>4591496.266</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4329570.073</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3831738.832</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3398582.846</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4840087.248</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3933657.676</v>
+      </c>
+      <c r="U30" t="n">
+        <v>3838008.145</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3325265.929</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2865644.037</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2330400.204</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>2685759.24</v>
+      </c>
+      <c r="Z30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31" t="n">
+        <v>269922.868</v>
+      </c>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32" t="n">
+        <v>1916691.047</v>
+      </c>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32" t="n">
+        <v>1386762.824</v>
+      </c>
+      <c r="Y32"/>
+      <c r="Z32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="n">
+        <v>260137.56</v>
+      </c>
+      <c r="D33" t="n">
+        <v>305814.365</v>
+      </c>
+      <c r="E33" t="n">
+        <v>262565.722</v>
+      </c>
+      <c r="F33" t="n">
+        <v>228217.952</v>
+      </c>
+      <c r="G33" t="n">
+        <v>195130.563</v>
+      </c>
+      <c r="H33" t="n">
+        <v>209039.64</v>
+      </c>
+      <c r="I33" t="n">
+        <v>250375.671</v>
+      </c>
+      <c r="J33" t="n">
+        <v>193875.06</v>
+      </c>
+      <c r="K33" t="n">
+        <v>158274.687</v>
+      </c>
+      <c r="L33" t="n">
+        <v>208606.156</v>
+      </c>
+      <c r="M33" t="n">
+        <v>218485.093</v>
+      </c>
+      <c r="N33" t="n">
+        <v>221143.189</v>
+      </c>
+      <c r="O33" t="n">
+        <v>225161.2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>225241.83</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>205947.296</v>
+      </c>
+      <c r="R33" t="n">
+        <v>154228.641</v>
+      </c>
+      <c r="S33" t="n">
+        <v>163400.74</v>
+      </c>
+      <c r="T33" t="n">
+        <v>91942.456</v>
+      </c>
+      <c r="U33" t="n">
+        <v>103345.811</v>
+      </c>
+      <c r="V33" t="n">
+        <v>131600.726</v>
+      </c>
+      <c r="W33" t="n">
+        <v>59305</v>
+      </c>
+      <c r="X33" t="n">
+        <v>64432.448</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>64871.483</v>
+      </c>
+      <c r="Z33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>8652.6</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3098.2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2664</v>
+      </c>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36" t="n">
+        <v>13409.813</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>7167.234</v>
+      </c>
+      <c r="T36"/>
+      <c r="U36" t="n">
+        <v>4153.841</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3133.181</v>
+      </c>
+      <c r="W36" t="n">
+        <v>4189.764</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3148.826</v>
+      </c>
+      <c r="Y36"/>
+      <c r="Z36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37" t="n">
+        <v>140176.922</v>
+      </c>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39" t="n">
+        <v>351383.619</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39" t="n">
+        <v>380760.933</v>
+      </c>
+      <c r="J39" t="n">
+        <v>408696.552</v>
+      </c>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39" t="n">
+        <v>453963.26</v>
+      </c>
+      <c r="N39" t="n">
+        <v>323814.166</v>
+      </c>
+      <c r="O39" t="n">
+        <v>470888.255</v>
+      </c>
+      <c r="P39" t="n">
+        <v>583285.747</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>720938.559</v>
+      </c>
+      <c r="R39" t="n">
+        <v>502672.876</v>
+      </c>
+      <c r="S39" t="n">
+        <v>400973.079</v>
+      </c>
+      <c r="T39" t="n">
+        <v>357678.558</v>
+      </c>
+      <c r="U39" t="n">
+        <v>326631.533</v>
+      </c>
+      <c r="V39" t="n">
+        <v>295539.524</v>
+      </c>
+      <c r="W39" t="n">
+        <v>224376.253</v>
+      </c>
+      <c r="X39" t="n">
+        <v>257748.989</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>231223.973</v>
+      </c>
+      <c r="Z39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40" t="n">
+        <v>48764283.09</v>
+      </c>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41" t="n">
+        <v>2559486.469</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41" t="n">
+        <v>1528240.363</v>
+      </c>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41" t="n">
+        <v>1197072.279</v>
+      </c>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41" t="n">
+        <v>1622175.523</v>
+      </c>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41" t="n">
+        <v>1268264.29</v>
+      </c>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42" t="n">
+        <v>926097.515</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42" t="n">
+        <v>572502.095</v>
+      </c>
+      <c r="I42" t="n">
+        <v>670098.95</v>
+      </c>
+      <c r="J42"/>
+      <c r="K42" t="n">
+        <v>1024554.128</v>
+      </c>
+      <c r="L42" t="n">
+        <v>814025.476</v>
+      </c>
+      <c r="M42" t="n">
+        <v>814567.14</v>
+      </c>
+      <c r="N42" t="n">
+        <v>861883.056</v>
+      </c>
+      <c r="O42" t="n">
+        <v>882019.614</v>
+      </c>
+      <c r="P42" t="n">
+        <v>807935.044</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>485233.819</v>
+      </c>
+      <c r="R42" t="n">
+        <v>431757.452</v>
+      </c>
+      <c r="S42" t="n">
+        <v>260328.748</v>
+      </c>
+      <c r="T42" t="n">
+        <v>174504.132</v>
+      </c>
+      <c r="U42" t="n">
+        <v>296515.603</v>
+      </c>
+      <c r="V42" t="n">
+        <v>262179.722</v>
+      </c>
+      <c r="W42" t="n">
+        <v>321480.682</v>
+      </c>
+      <c r="X42" t="n">
+        <v>176426.024</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>159324.068</v>
+      </c>
+      <c r="Z42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45" t="n">
+        <v>11803.611</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45" t="n">
+        <v>3591.585</v>
+      </c>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45" t="n">
+        <v>693.078</v>
+      </c>
+      <c r="L45"/>
+      <c r="M45" t="n">
+        <v>8381.91</v>
+      </c>
+      <c r="N45" t="n">
+        <v>7912.256</v>
+      </c>
+      <c r="O45" t="n">
+        <v>7862.295</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5071.664</v>
+      </c>
+      <c r="Q45"/>
+      <c r="R45" t="n">
+        <v>9754.38</v>
+      </c>
+      <c r="S45" t="n">
+        <v>9831.713</v>
+      </c>
+      <c r="T45" t="n">
+        <v>6301.196</v>
+      </c>
+      <c r="U45" t="n">
+        <v>6016.905</v>
+      </c>
+      <c r="V45" t="n">
+        <v>7873.639</v>
+      </c>
+      <c r="W45" t="n">
+        <v>10784.948</v>
+      </c>
+      <c r="X45" t="n">
+        <v>13008.902</v>
+      </c>
+      <c r="Y45"/>
+      <c r="Z45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46" t="n">
+        <v>36038864.01</v>
+      </c>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46" t="n">
+        <v>36029405.39</v>
+      </c>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46" t="n">
+        <v>29674756.7</v>
+      </c>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46" t="n">
+        <v>32887707.88</v>
+      </c>
+      <c r="Y46"/>
+      <c r="Z46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47" t="n">
+        <v>238302.518</v>
+      </c>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47" t="n">
+        <v>50125.765</v>
+      </c>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48" t="n">
+        <v>84009.419</v>
+      </c>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49" t="n">
+        <v>760597.703</v>
+      </c>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49" t="n">
+        <v>453516.692</v>
+      </c>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50" t="n">
+        <v>217879.92</v>
+      </c>
+      <c r="J50" t="n">
+        <v>793936.32</v>
+      </c>
+      <c r="K50" t="n">
+        <v>599503.28</v>
+      </c>
+      <c r="L50" t="n">
+        <v>765384.75</v>
+      </c>
+      <c r="M50" t="n">
+        <v>784248.25</v>
+      </c>
+      <c r="N50" t="n">
+        <v>764110.88</v>
+      </c>
+      <c r="O50" t="n">
+        <v>618258.3</v>
+      </c>
+      <c r="P50" t="n">
+        <v>676174.18</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>652495.13</v>
+      </c>
+      <c r="R50" t="n">
+        <v>648104.04</v>
+      </c>
+      <c r="S50" t="n">
+        <v>610002.6</v>
+      </c>
+      <c r="T50" t="n">
+        <v>647289</v>
+      </c>
+      <c r="U50" t="n">
+        <v>615923.9</v>
+      </c>
+      <c r="V50" t="n">
+        <v>617084.91</v>
+      </c>
+      <c r="W50" t="n">
+        <v>803285.12</v>
+      </c>
+      <c r="X50" t="n">
+        <v>719577.675</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>634984.98</v>
+      </c>
+      <c r="Z50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51" t="n">
+        <v>7901394.637</v>
+      </c>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51" t="n">
+        <v>7029406.296</v>
+      </c>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51" t="n">
+        <v>6274870.016</v>
+      </c>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53" t="n">
+        <v>1735163.907</v>
+      </c>
+      <c r="L53"/>
+      <c r="M53" t="n">
+        <v>1320973.176</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53" t="n">
+        <v>2342558.436</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2167691.45</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2036976.66</v>
+      </c>
+      <c r="R53"/>
+      <c r="S53" t="n">
+        <v>1747877.803</v>
+      </c>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53" t="n">
+        <v>2014801.186</v>
+      </c>
+      <c r="Y53"/>
+      <c r="Z53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54" t="n">
+        <v>5954139.824</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54" t="n">
+        <v>4794717.219</v>
+      </c>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54" t="n">
+        <v>5184020.019</v>
+      </c>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54" t="n">
+        <v>3951472.121</v>
+      </c>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54" t="n">
+        <v>4680135.275</v>
+      </c>
+      <c r="Z54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55" t="n">
+        <v>429920.193</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55" t="n">
+        <v>711597.226</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55" t="n">
+        <v>650785.161</v>
+      </c>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56" t="n">
+        <v>50029.367</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56" t="n">
+        <v>64164.762</v>
+      </c>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57" t="n">
+        <v>5381264.424</v>
+      </c>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2300322.855</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1665804.442</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1391585.442</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1115570.658</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1321185.457</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1463968.583</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1630092.387</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1138353.846</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1459157.088</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1517074.434</v>
+      </c>
+      <c r="M58"/>
+      <c r="N58" t="n">
+        <v>1079510.784</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1785046.115</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1696148.959</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1662880.553</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1783346.263</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1576383.872</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1134192.888</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1069797.965</v>
+      </c>
+      <c r="V58" t="n">
+        <v>926260.656</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1022003.456</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1281595.051</v>
+      </c>
+      <c r="Y58"/>
+      <c r="Z58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59" t="n">
+        <v>15536.285</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2047.506</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59"/>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>13092.781</v>
+      </c>
+      <c r="T59"/>
+      <c r="U59" t="n">
+        <v>3011.456</v>
+      </c>
+      <c r="V59"/>
+      <c r="W59" t="n">
+        <v>5000.012</v>
+      </c>
+      <c r="X59" t="n">
+        <v>4985.864</v>
+      </c>
+      <c r="Y59"/>
+      <c r="Z59"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60" t="n">
+        <v>463595559.7</v>
+      </c>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60" t="n">
+        <v>469342573.4</v>
+      </c>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60" t="n">
+        <v>393998135</v>
+      </c>
+      <c r="X60"/>
+      <c r="Y60" t="n">
+        <v>292222443.5</v>
+      </c>
+      <c r="Z60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="n">
+        <v>96944258.81</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61" t="n">
+        <v>102282487.2</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61" t="n">
+        <v>85501063.38</v>
+      </c>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61" t="n">
+        <v>98236638.39</v>
+      </c>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61" t="n">
+        <v>63199751.96</v>
+      </c>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61" t="n">
+        <v>48398082.26</v>
+      </c>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61" t="n">
+        <v>53196696.35</v>
+      </c>
+      <c r="V61"/>
+      <c r="W61" t="n">
+        <v>43418037.89</v>
+      </c>
+      <c r="X61" t="n">
+        <v>39495865.52</v>
+      </c>
+      <c r="Y61"/>
+      <c r="Z61"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2169931.918</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62" t="n">
+        <v>847216.119</v>
+      </c>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62" t="n">
+        <v>802788.802</v>
+      </c>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62" t="n">
+        <v>1017209.568</v>
+      </c>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63" t="n">
+        <v>968559.231</v>
+      </c>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63" t="n">
+        <v>1273807.972</v>
+      </c>
+      <c r="Z63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="n">
+        <v>30353</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64" t="n">
+        <v>93247.117</v>
+      </c>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64" t="n">
+        <v>44174.645</v>
+      </c>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64" t="n">
+        <v>34238.044</v>
+      </c>
+      <c r="M64"/>
+      <c r="N64" t="n">
+        <v>972654.055</v>
+      </c>
+      <c r="O64" t="n">
+        <v>8107.284</v>
+      </c>
+      <c r="P64"/>
+      <c r="Q64" t="n">
+        <v>6321.948</v>
+      </c>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65" t="n">
+        <v>102284.2</v>
+      </c>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65" t="n">
+        <v>66439.1</v>
+      </c>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65" t="n">
+        <v>59902.4</v>
+      </c>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65" t="n">
+        <v>13840</v>
+      </c>
+      <c r="T65"/>
+      <c r="U65" t="n">
+        <v>4050.2</v>
+      </c>
+      <c r="V65"/>
+      <c r="W65" t="n">
+        <v>4836.8</v>
+      </c>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66" t="n">
+        <v>687510.64</v>
+      </c>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66" t="n">
+        <v>775779.121</v>
+      </c>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66" t="n">
+        <v>909330.102</v>
+      </c>
+      <c r="O66" t="n">
+        <v>558696.445</v>
+      </c>
+      <c r="P66" t="n">
+        <v>359307.334</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>217688.283</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3029.406</v>
+      </c>
+      <c r="S66" t="n">
+        <v>62763.144</v>
+      </c>
+      <c r="T66" t="n">
+        <v>24774.707</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1567.4</v>
+      </c>
+      <c r="V66"/>
+      <c r="W66" t="n">
+        <v>9792.949</v>
+      </c>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67" t="n">
+        <v>9619192.732</v>
+      </c>
+      <c r="F67"/>
+      <c r="G67" t="n">
+        <v>7590877.815</v>
+      </c>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67" t="n">
+        <v>9212762.84</v>
+      </c>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67" t="n">
+        <v>15520265.9</v>
+      </c>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70" t="n">
+        <v>840557.87</v>
+      </c>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70" t="n">
+        <v>1518449.6</v>
+      </c>
+      <c r="L70"/>
+      <c r="M70" t="n">
+        <v>1803101.04</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1611113.58</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1484234.18</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1246199.43</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>561006.53</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1027873.66</v>
+      </c>
+      <c r="S70" t="n">
+        <v>698221.92</v>
+      </c>
+      <c r="T70" t="n">
+        <v>100099.6</v>
+      </c>
+      <c r="U70" t="n">
+        <v>292528.5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>303079.79</v>
+      </c>
+      <c r="W70" t="n">
+        <v>327963.58</v>
+      </c>
+      <c r="X70" t="n">
+        <v>281796.06</v>
+      </c>
+      <c r="Y70"/>
+      <c r="Z70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71" t="n">
+        <v>2504390.074</v>
+      </c>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71" t="n">
+        <v>2422472.917</v>
+      </c>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71" t="n">
+        <v>2285749.989</v>
+      </c>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71" t="n">
+        <v>2110660.578</v>
+      </c>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71" t="n">
+        <v>2011027.25</v>
+      </c>
+      <c r="Z71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72"/>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>10320.332</v>
+      </c>
+      <c r="J72" t="n">
+        <v>13623.966</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72" t="n">
+        <v>9471.709</v>
+      </c>
+      <c r="P72"/>
+      <c r="Q72" t="n">
+        <v>2489.434</v>
+      </c>
+      <c r="R72"/>
+      <c r="S72" t="n">
+        <v>26398.448</v>
+      </c>
+      <c r="T72"/>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72"/>
+      <c r="W72" t="n">
+        <v>28946.259</v>
+      </c>
+      <c r="X72" t="n">
+        <v>22038.886</v>
+      </c>
+      <c r="Y72"/>
+      <c r="Z72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74" t="n">
+        <v>1135125.568</v>
+      </c>
+      <c r="G74" t="n">
+        <v>964340.962</v>
+      </c>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74" t="n">
+        <v>1047354.361</v>
+      </c>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74" t="n">
+        <v>1129415.386</v>
+      </c>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75" t="n">
+        <v>2950273.454</v>
+      </c>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77" t="n">
+        <v>79176.18</v>
+      </c>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77"/>
+      <c r="K77" t="n">
+        <v>4259.197</v>
+      </c>
+      <c r="L77"/>
+      <c r="M77" t="n">
+        <v>2099.722</v>
+      </c>
+      <c r="N77" t="n">
+        <v>10412.454</v>
+      </c>
+      <c r="O77" t="n">
+        <v>5508.907</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2390.649</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2026.245</v>
+      </c>
+      <c r="R77" t="n">
+        <v>56815.229</v>
+      </c>
+      <c r="S77" t="n">
+        <v>45778.726</v>
+      </c>
+      <c r="T77"/>
+      <c r="U77" t="n">
+        <v>1599.116</v>
+      </c>
+      <c r="V77"/>
+      <c r="W77" t="n">
+        <v>45839.774</v>
+      </c>
+      <c r="X77" t="n">
+        <v>25133.355</v>
+      </c>
+      <c r="Y77"/>
+      <c r="Z77"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78"/>
+      <c r="M78" t="n">
+        <v>85573.779</v>
+      </c>
+      <c r="N78"/>
+      <c r="O78" t="n">
+        <v>10994.537</v>
+      </c>
+      <c r="P78" t="n">
+        <v>9363.897</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>10845.786</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5852.123</v>
+      </c>
+      <c r="S78" t="n">
+        <v>19262.969</v>
+      </c>
+      <c r="T78"/>
+      <c r="U78" t="n">
+        <v>5876.553</v>
+      </c>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79" t="n">
+        <v>8480239.585</v>
+      </c>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79" t="n">
+        <v>10322783.78</v>
+      </c>
+      <c r="K79"/>
+      <c r="L79" t="n">
+        <v>12571982.36</v>
+      </c>
+      <c r="M79"/>
+      <c r="N79" t="n">
+        <v>12394384.53</v>
+      </c>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79" t="n">
+        <v>15076771.77</v>
+      </c>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79" t="n">
+        <v>18480425.7</v>
+      </c>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80" t="n">
+        <v>8904689.796</v>
+      </c>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80" t="n">
+        <v>9420533.705</v>
+      </c>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80" t="n">
+        <v>10833881.59</v>
+      </c>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81" t="n">
+        <v>313043.326</v>
+      </c>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81" t="n">
+        <v>433160.317</v>
+      </c>
+      <c r="I81"/>
+      <c r="J81" t="n">
+        <v>117751.509</v>
+      </c>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81" t="n">
+        <v>136971.481</v>
+      </c>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82" t="n">
+        <v>67038.891</v>
+      </c>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82" t="n">
+        <v>4329.074</v>
+      </c>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83" t="n">
+        <v>7526112.566</v>
+      </c>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83" t="n">
+        <v>6462301.462</v>
+      </c>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83" t="n">
+        <v>6339027.794</v>
+      </c>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83" t="n">
+        <v>7078294.862</v>
+      </c>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85" t="n">
+        <v>942649.151</v>
+      </c>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85" t="n">
+        <v>562490.37</v>
+      </c>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85" t="n">
+        <v>573032.902</v>
+      </c>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85" t="n">
+        <v>776383.493</v>
+      </c>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85" t="n">
+        <v>801985.704</v>
+      </c>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86" t="n">
+        <v>2630.666</v>
+      </c>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86" t="n">
+        <v>5552.018</v>
+      </c>
+      <c r="Z86"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87" t="n">
+        <v>4335307.343</v>
+      </c>
+      <c r="F87"/>
+      <c r="G87" t="n">
+        <v>3330080.141</v>
+      </c>
+      <c r="H87"/>
+      <c r="I87" t="n">
+        <v>7640040.494</v>
+      </c>
+      <c r="J87"/>
+      <c r="K87" t="n">
+        <v>8678518.335</v>
+      </c>
+      <c r="L87"/>
+      <c r="M87" t="n">
+        <v>5744210.467</v>
+      </c>
+      <c r="N87"/>
+      <c r="O87" t="n">
+        <v>4162222.779</v>
+      </c>
+      <c r="P87"/>
+      <c r="Q87" t="n">
+        <v>1750104.8</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5459079.022</v>
+      </c>
+      <c r="S87" t="n">
+        <v>762393.519</v>
+      </c>
+      <c r="T87"/>
+      <c r="U87" t="n">
+        <v>1322132.449</v>
+      </c>
+      <c r="V87"/>
+      <c r="W87" t="n">
+        <v>848782.109</v>
+      </c>
+      <c r="X87"/>
+      <c r="Y87" t="n">
+        <v>1244729.013</v>
+      </c>
+      <c r="Z87"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
+      <c r="W88"/>
+      <c r="X88"/>
+      <c r="Y88"/>
+      <c r="Z88"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89" t="n">
+        <v>454352.5</v>
+      </c>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89" t="n">
+        <v>572248.973</v>
+      </c>
+      <c r="K89" t="n">
+        <v>932907.753</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1300885.257</v>
+      </c>
+      <c r="M89"/>
+      <c r="N89" t="n">
+        <v>908228.646</v>
+      </c>
+      <c r="O89" t="n">
+        <v>542010.075</v>
+      </c>
+      <c r="P89" t="n">
+        <v>225804.625</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>240383.132</v>
+      </c>
+      <c r="R89" t="n">
+        <v>449038.856</v>
+      </c>
+      <c r="S89" t="n">
+        <v>77799.035</v>
+      </c>
+      <c r="T89" t="n">
+        <v>36126.791</v>
+      </c>
+      <c r="U89" t="n">
+        <v>38200.156</v>
+      </c>
+      <c r="V89" t="n">
+        <v>27811.711</v>
+      </c>
+      <c r="W89" t="n">
+        <v>14960.589</v>
+      </c>
+      <c r="X89" t="n">
+        <v>8187.968</v>
+      </c>
+      <c r="Y89"/>
+      <c r="Z89"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90"/>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90"/>
+      <c r="V90"/>
+      <c r="W90"/>
+      <c r="X90"/>
+      <c r="Y90"/>
+      <c r="Z90"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91" t="n">
+        <v>1539.55</v>
+      </c>
+      <c r="S91" t="n">
+        <v>863.596</v>
+      </c>
+      <c r="T91" t="n">
+        <v>2285.86</v>
+      </c>
+      <c r="U91" t="n">
+        <v>556.784</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0</v>
+      </c>
+      <c r="X91" t="n">
+        <v>1303.352</v>
+      </c>
+      <c r="Y91"/>
+      <c r="Z91"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92"/>
+      <c r="D92" t="n">
+        <v>615637.568</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92" t="n">
+        <v>1918096.123</v>
+      </c>
+      <c r="M92"/>
+      <c r="N92" t="n">
+        <v>1819626.481</v>
+      </c>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92" t="n">
+        <v>788144.11</v>
+      </c>
+      <c r="U92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+      <c r="X92"/>
+      <c r="Y92"/>
+      <c r="Z92"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93" t="n">
+        <v>13267875.01</v>
+      </c>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93" t="n">
+        <v>14843487.27</v>
+      </c>
+      <c r="Q93"/>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+      <c r="V93" t="n">
+        <v>14182478.28</v>
+      </c>
+      <c r="W93"/>
+      <c r="X93"/>
+      <c r="Y93"/>
+      <c r="Z93"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
+      <c r="X94"/>
+      <c r="Y94"/>
+      <c r="Z94"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95" t="n">
+        <v>766328.472</v>
+      </c>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95" t="n">
+        <v>639259.412</v>
+      </c>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
+      <c r="V95"/>
+      <c r="W95" t="n">
+        <v>512928.832</v>
+      </c>
+      <c r="X95"/>
+      <c r="Y95"/>
+      <c r="Z95"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96" t="n">
+        <v>14352049.7</v>
+      </c>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96" t="n">
+        <v>13030412.5</v>
+      </c>
+      <c r="Q96"/>
+      <c r="R96"/>
+      <c r="S96"/>
+      <c r="T96"/>
+      <c r="U96"/>
+      <c r="V96"/>
+      <c r="W96" t="n">
+        <v>6373244.198</v>
+      </c>
+      <c r="X96"/>
+      <c r="Y96"/>
+      <c r="Z96"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97" t="n">
+        <v>1456606.428</v>
+      </c>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97" t="n">
+        <v>617658.732</v>
+      </c>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97" t="n">
+        <v>743889.635</v>
+      </c>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97" t="n">
+        <v>154928.22</v>
+      </c>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97" t="n">
+        <v>490480.297</v>
+      </c>
+      <c r="W97"/>
+      <c r="X97"/>
+      <c r="Y97"/>
+      <c r="Z97"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98" t="n">
+        <v>6019913.519</v>
+      </c>
+      <c r="F98"/>
+      <c r="G98" t="n">
+        <v>6919423.137</v>
+      </c>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98" t="n">
+        <v>6756696.475</v>
+      </c>
+      <c r="S98"/>
+      <c r="T98"/>
+      <c r="U98" t="n">
+        <v>6198758.637</v>
+      </c>
+      <c r="V98"/>
+      <c r="W98"/>
+      <c r="X98" t="n">
+        <v>6738327.642</v>
+      </c>
+      <c r="Y98"/>
+      <c r="Z98"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99" t="n">
+        <v>62266597.8</v>
+      </c>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99" t="n">
+        <v>76315603.17</v>
+      </c>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99" t="n">
+        <v>84101936.2</v>
+      </c>
+      <c r="R99"/>
+      <c r="S99"/>
+      <c r="T99"/>
+      <c r="U99"/>
+      <c r="V99"/>
+      <c r="W99" t="n">
+        <v>99066735.93</v>
+      </c>
+      <c r="X99"/>
+      <c r="Y99"/>
+      <c r="Z99"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100"/>
+      <c r="D100" t="n">
+        <v>73917697.2</v>
+      </c>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100" t="n">
+        <v>64313832.65</v>
+      </c>
+      <c r="K100"/>
+      <c r="L100" t="n">
+        <v>40838605.62</v>
+      </c>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100" t="n">
+        <v>53695124.45</v>
+      </c>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100" t="n">
+        <v>35685742.65</v>
+      </c>
+      <c r="S100" t="n">
+        <v>36332528.29</v>
+      </c>
+      <c r="T100"/>
+      <c r="U100" t="n">
+        <v>28641886.23</v>
+      </c>
+      <c r="V100"/>
+      <c r="W100"/>
+      <c r="X100" t="n">
+        <v>22443593.37</v>
+      </c>
+      <c r="Y100"/>
+      <c r="Z100"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101"/>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101"/>
+      <c r="V101"/>
+      <c r="W101"/>
+      <c r="X101"/>
+      <c r="Y101"/>
+      <c r="Z101"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102" t="n">
+        <v>7444.24</v>
+      </c>
+      <c r="R102"/>
+      <c r="S102"/>
+      <c r="T102" t="n">
+        <v>32149.363</v>
+      </c>
+      <c r="U102"/>
+      <c r="V102" t="n">
+        <v>2961.774</v>
+      </c>
+      <c r="W102"/>
+      <c r="X102"/>
+      <c r="Y102"/>
+      <c r="Z102"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103"/>
+      <c r="D103" t="n">
+        <v>530426.346</v>
+      </c>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103" t="n">
+        <v>432573.928</v>
+      </c>
+      <c r="I103"/>
+      <c r="J103" t="n">
+        <v>418638.062</v>
+      </c>
+      <c r="K103" t="n">
+        <v>433218.87</v>
+      </c>
+      <c r="L103" t="n">
+        <v>379000.521</v>
+      </c>
+      <c r="M103" t="n">
+        <v>422175.018</v>
+      </c>
+      <c r="N103"/>
+      <c r="O103" t="n">
+        <v>351854.415</v>
+      </c>
+      <c r="P103" t="n">
+        <v>345793.894</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>327690.832</v>
+      </c>
+      <c r="R103" t="n">
+        <v>319426.662</v>
+      </c>
+      <c r="S103" t="n">
+        <v>349022.216</v>
+      </c>
+      <c r="T103" t="n">
+        <v>251354.448</v>
+      </c>
+      <c r="U103" t="n">
+        <v>168079.604</v>
+      </c>
+      <c r="V103" t="n">
+        <v>108113.795</v>
+      </c>
+      <c r="W103" t="n">
+        <v>140504.49</v>
+      </c>
+      <c r="X103" t="n">
+        <v>132780.011</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>151711.012</v>
+      </c>
+      <c r="Z103"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104" t="n">
+        <v>1732601.058</v>
+      </c>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
+      <c r="R104"/>
+      <c r="S104"/>
+      <c r="T104"/>
+      <c r="U104"/>
+      <c r="V104"/>
+      <c r="W104"/>
+      <c r="X104"/>
+      <c r="Y104"/>
+      <c r="Z104"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" t="n">
+        <v>44622.344</v>
+      </c>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105" t="n">
+        <v>552210.91</v>
+      </c>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105" t="n">
+        <v>492549.408</v>
+      </c>
+      <c r="L105" t="n">
+        <v>489970.014</v>
+      </c>
+      <c r="M105"/>
+      <c r="N105" t="n">
+        <v>441764.239</v>
+      </c>
+      <c r="O105" t="n">
+        <v>697535.649</v>
+      </c>
+      <c r="P105" t="n">
+        <v>443791.535</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>323267.814</v>
+      </c>
+      <c r="R105" t="n">
+        <v>360154.37</v>
+      </c>
+      <c r="S105" t="n">
+        <v>523285.947</v>
+      </c>
+      <c r="T105" t="n">
+        <v>456946.261</v>
+      </c>
+      <c r="U105" t="n">
+        <v>269395.416</v>
+      </c>
+      <c r="V105" t="n">
+        <v>361800.831</v>
+      </c>
+      <c r="W105" t="n">
+        <v>343657.157</v>
+      </c>
+      <c r="X105" t="n">
+        <v>291188.197</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>202627.038</v>
+      </c>
+      <c r="Z105"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106" t="n">
+        <v>2306464.22</v>
+      </c>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106" t="n">
+        <v>240461.594</v>
+      </c>
+      <c r="K106" t="n">
+        <v>3619698.921</v>
+      </c>
+      <c r="L106" t="n">
+        <v>4046614.156</v>
+      </c>
+      <c r="M106" t="n">
+        <v>3252610.008</v>
+      </c>
+      <c r="N106" t="n">
+        <v>3531258.736</v>
+      </c>
+      <c r="O106" t="n">
+        <v>3089977.48</v>
+      </c>
+      <c r="P106" t="n">
+        <v>2423063.393</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1849759.538</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2170732.902</v>
+      </c>
+      <c r="S106" t="n">
+        <v>1802373.238</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1787522.671</v>
+      </c>
+      <c r="U106" t="n">
+        <v>1385480.395</v>
+      </c>
+      <c r="V106" t="n">
+        <v>1012700.605</v>
+      </c>
+      <c r="W106" t="n">
+        <v>798875.259</v>
+      </c>
+      <c r="X106" t="n">
+        <v>879562.144</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>866647.42</v>
+      </c>
+      <c r="Z106"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107"/>
+      <c r="D107" t="n">
+        <v>21042442.84</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107" t="n">
+        <v>20762301.22</v>
+      </c>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107" t="n">
+        <v>17249079.94</v>
+      </c>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107" t="n">
+        <v>19094589.42</v>
+      </c>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107" t="n">
+        <v>18899951.01</v>
+      </c>
+      <c r="Q107"/>
+      <c r="R107"/>
+      <c r="S107" t="n">
+        <v>19727372.18</v>
+      </c>
+      <c r="T107"/>
+      <c r="U107"/>
+      <c r="V107" t="n">
+        <v>16631438.4</v>
+      </c>
+      <c r="W107"/>
+      <c r="X107"/>
+      <c r="Y107" t="n">
+        <v>18335602.45</v>
+      </c>
+      <c r="Z107"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108" t="n">
+        <v>11509.1</v>
+      </c>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108" t="n">
+        <v>540741.18</v>
+      </c>
+      <c r="J108"/>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>15464.108</v>
+      </c>
+      <c r="M108" t="n">
+        <v>19129.315</v>
+      </c>
+      <c r="N108" t="n">
+        <v>19124.038</v>
+      </c>
+      <c r="O108" t="n">
+        <v>7646.073</v>
+      </c>
+      <c r="P108"/>
+      <c r="Q108" t="n">
+        <v>19091.111</v>
+      </c>
+      <c r="R108" t="n">
+        <v>30532.356</v>
+      </c>
+      <c r="S108" t="n">
+        <v>3814.127</v>
+      </c>
+      <c r="T108" t="n">
+        <v>7624.112</v>
+      </c>
+      <c r="U108" t="n">
+        <v>3812.576</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y108"/>
+      <c r="Z108"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109" t="n">
+        <v>91177.136</v>
+      </c>
+      <c r="F109"/>
+      <c r="G109" t="n">
+        <v>1129691.487</v>
+      </c>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109" t="n">
+        <v>380374.114</v>
+      </c>
+      <c r="L109" t="n">
+        <v>649441.956</v>
+      </c>
+      <c r="M109"/>
+      <c r="N109" t="n">
+        <v>544446.462</v>
+      </c>
+      <c r="O109" t="n">
+        <v>571512.045</v>
+      </c>
+      <c r="P109" t="n">
+        <v>338716.918</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z109"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110" t="n">
+        <v>2227800</v>
+      </c>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110" t="n">
+        <v>4163299.541</v>
+      </c>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110" t="n">
+        <v>4004241.934</v>
+      </c>
+      <c r="M110"/>
+      <c r="N110" t="n">
+        <v>1299190.61</v>
+      </c>
+      <c r="O110" t="n">
+        <v>741580.968</v>
+      </c>
+      <c r="P110" t="n">
+        <v>549736.378</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>1006748.484</v>
+      </c>
+      <c r="R110" t="n">
+        <v>314850.547</v>
+      </c>
+      <c r="S110" t="n">
+        <v>242228.342</v>
+      </c>
+      <c r="T110" t="n">
+        <v>127903.413</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0</v>
+      </c>
+      <c r="V110" t="n">
+        <v>42572.773</v>
+      </c>
+      <c r="W110"/>
+      <c r="X110"/>
+      <c r="Y110"/>
+      <c r="Z110"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111" t="n">
+        <v>6663569.465</v>
+      </c>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111"/>
+      <c r="S111" t="n">
+        <v>6952982.836</v>
+      </c>
+      <c r="T111"/>
+      <c r="U111"/>
+      <c r="V111"/>
+      <c r="W111"/>
+      <c r="X111" t="n">
+        <v>7023147.313</v>
+      </c>
+      <c r="Y111"/>
+      <c r="Z111"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+      <c r="S112"/>
+      <c r="T112"/>
+      <c r="U112"/>
+      <c r="V112"/>
+      <c r="W112"/>
+      <c r="X112"/>
+      <c r="Y112"/>
+      <c r="Z112"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113" t="n">
+        <v>30819.584</v>
+      </c>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
+      <c r="T113"/>
+      <c r="U113"/>
+      <c r="V113"/>
+      <c r="W113"/>
+      <c r="X113"/>
+      <c r="Y113"/>
+      <c r="Z113"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+      <c r="S114"/>
+      <c r="T114"/>
+      <c r="U114"/>
+      <c r="V114"/>
+      <c r="W114"/>
+      <c r="X114"/>
+      <c r="Y114"/>
+      <c r="Z114"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115"/>
+      <c r="S115"/>
+      <c r="T115"/>
+      <c r="U115"/>
+      <c r="V115"/>
+      <c r="W115"/>
+      <c r="X115"/>
+      <c r="Y115"/>
+      <c r="Z115"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>233</v>
+      </c>
+      <c r="B116" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116" t="n">
+        <v>39954.449</v>
+      </c>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
+      <c r="R116"/>
+      <c r="S116"/>
+      <c r="T116"/>
+      <c r="U116"/>
+      <c r="V116"/>
+      <c r="W116" t="n">
+        <v>77582.648</v>
+      </c>
+      <c r="X116"/>
+      <c r="Y116"/>
+      <c r="Z116"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117"/>
+      <c r="D117" t="n">
+        <v>5092266.103</v>
+      </c>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117" t="n">
+        <v>4533687.233</v>
+      </c>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117" t="n">
+        <v>4465566.773</v>
+      </c>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
+      <c r="R117" t="n">
+        <v>3775726.71</v>
+      </c>
+      <c r="S117"/>
+      <c r="T117"/>
+      <c r="U117"/>
+      <c r="V117"/>
+      <c r="W117"/>
+      <c r="X117" t="n">
+        <v>4540449.022</v>
+      </c>
+      <c r="Y117"/>
+      <c r="Z117"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>237</v>
+      </c>
+      <c r="B118" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118" t="n">
+        <v>19500.081</v>
+      </c>
+      <c r="P118" t="n">
+        <v>23189.832</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>30598.944</v>
+      </c>
+      <c r="R118" t="n">
+        <v>43900.537</v>
+      </c>
+      <c r="S118" t="n">
+        <v>18528.923</v>
+      </c>
+      <c r="T118" t="n">
+        <v>8857.895</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2940.088</v>
+      </c>
+      <c r="V118" t="n">
+        <v>5124.565</v>
+      </c>
+      <c r="W118" t="n">
+        <v>3645.718</v>
+      </c>
+      <c r="X118"/>
+      <c r="Y118"/>
+      <c r="Z118"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>239</v>
+      </c>
+      <c r="B119" t="s">
+        <v>240</v>
+      </c>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+      <c r="Q119"/>
+      <c r="R119"/>
+      <c r="S119"/>
+      <c r="T119" t="n">
+        <v>212.583</v>
+      </c>
+      <c r="U119"/>
+      <c r="V119"/>
+      <c r="W119"/>
+      <c r="X119"/>
+      <c r="Y119"/>
+      <c r="Z119"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>241</v>
+      </c>
+      <c r="B120" t="s">
+        <v>242</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2540823.123</v>
+      </c>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120" t="n">
+        <v>2801266.327</v>
+      </c>
+      <c r="Q120"/>
+      <c r="R120"/>
+      <c r="S120"/>
+      <c r="T120"/>
+      <c r="U120"/>
+      <c r="V120"/>
+      <c r="W120"/>
+      <c r="X120" t="n">
+        <v>3321627.553</v>
+      </c>
+      <c r="Y120"/>
+      <c r="Z120"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>243</v>
+      </c>
+      <c r="B121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121" t="n">
+        <v>9672.05</v>
+      </c>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+      <c r="P121"/>
+      <c r="Q121" t="n">
+        <v>9132.876</v>
+      </c>
+      <c r="R121" t="n">
+        <v>2686.404</v>
+      </c>
+      <c r="S121" t="n">
+        <v>0</v>
+      </c>
+      <c r="T121"/>
+      <c r="U121" t="n">
+        <v>0</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="n">
+        <v>21565.712</v>
+      </c>
+      <c r="X121" t="n">
+        <v>16195.152</v>
+      </c>
+      <c r="Y121"/>
+      <c r="Z121"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122" t="n">
+        <v>597.524</v>
+      </c>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122" t="n">
+        <v>396.326</v>
+      </c>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="O122" t="n">
+        <v>997.265</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>1198.207</v>
+      </c>
+      <c r="R122" t="n">
+        <v>1600.379</v>
+      </c>
+      <c r="S122" t="n">
+        <v>1003.434</v>
+      </c>
+      <c r="T122"/>
+      <c r="U122" t="n">
+        <v>202.132</v>
+      </c>
+      <c r="V122"/>
+      <c r="W122" t="n">
+        <v>204.858</v>
+      </c>
+      <c r="X122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y122"/>
+      <c r="Z122"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>247</v>
+      </c>
+      <c r="B123" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+      <c r="O123"/>
+      <c r="P123"/>
+      <c r="Q123"/>
+      <c r="R123"/>
+      <c r="S123"/>
+      <c r="T123"/>
+      <c r="U123"/>
+      <c r="V123"/>
+      <c r="W123"/>
+      <c r="X123"/>
+      <c r="Y123"/>
+      <c r="Z123"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>249</v>
+      </c>
+      <c r="B124" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124"/>
+      <c r="Q124"/>
+      <c r="R124"/>
+      <c r="S124"/>
+      <c r="T124"/>
+      <c r="U124"/>
+      <c r="V124"/>
+      <c r="W124"/>
+      <c r="X124"/>
+      <c r="Y124"/>
+      <c r="Z124"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125" t="n">
+        <v>9106132.428</v>
+      </c>
+      <c r="G125"/>
+      <c r="H125" t="n">
+        <v>8383416</v>
+      </c>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125" t="n">
+        <v>11528000</v>
+      </c>
+      <c r="N125"/>
+      <c r="O125"/>
+      <c r="P125"/>
+      <c r="Q125"/>
+      <c r="R125"/>
+      <c r="S125" t="n">
+        <v>8070702.702</v>
+      </c>
+      <c r="T125"/>
+      <c r="U125"/>
+      <c r="V125" t="n">
+        <v>6865483.553</v>
+      </c>
+      <c r="W125"/>
+      <c r="X125" t="n">
+        <v>4858798.226</v>
+      </c>
+      <c r="Y125"/>
+      <c r="Z125"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>253</v>
+      </c>
+      <c r="B126" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+      <c r="Q126"/>
+      <c r="R126"/>
+      <c r="S126"/>
+      <c r="T126"/>
+      <c r="U126"/>
+      <c r="V126"/>
+      <c r="W126"/>
+      <c r="X126"/>
+      <c r="Y126"/>
+      <c r="Z126"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>255</v>
+      </c>
+      <c r="B127" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127"/>
+      <c r="D127" t="n">
+        <v>2591776.7</v>
+      </c>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127" t="n">
+        <v>2992435.2</v>
+      </c>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+      <c r="O127" t="n">
+        <v>2639479.5</v>
+      </c>
+      <c r="P127"/>
+      <c r="Q127"/>
+      <c r="R127"/>
+      <c r="S127"/>
+      <c r="T127" t="n">
+        <v>1410745.6</v>
+      </c>
+      <c r="U127"/>
+      <c r="V127"/>
+      <c r="W127" t="n">
+        <v>848838.3</v>
+      </c>
+      <c r="X127"/>
+      <c r="Y127"/>
+      <c r="Z127"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128" t="s">
+        <v>258</v>
+      </c>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+      <c r="Q128"/>
+      <c r="R128"/>
+      <c r="S128"/>
+      <c r="T128"/>
+      <c r="U128"/>
+      <c r="V128" t="n">
+        <v>6900929.244</v>
+      </c>
+      <c r="W128"/>
+      <c r="X128"/>
+      <c r="Y128"/>
+      <c r="Z128"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>259</v>
+      </c>
+      <c r="B129" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129" t="n">
+        <v>71517.411</v>
+      </c>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129"/>
+      <c r="P129"/>
+      <c r="Q129"/>
+      <c r="R129"/>
+      <c r="S129"/>
+      <c r="T129"/>
+      <c r="U129"/>
+      <c r="V129"/>
+      <c r="W129"/>
+      <c r="X129"/>
+      <c r="Y129"/>
+      <c r="Z129"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>261</v>
+      </c>
+      <c r="B130" t="s">
+        <v>262</v>
+      </c>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130" t="n">
+        <v>757158.065</v>
+      </c>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130" t="n">
+        <v>462362.182</v>
+      </c>
+      <c r="O130"/>
+      <c r="P130"/>
+      <c r="Q130"/>
+      <c r="R130"/>
+      <c r="S130"/>
+      <c r="T130"/>
+      <c r="U130"/>
+      <c r="V130"/>
+      <c r="W130" t="n">
+        <v>468907.164</v>
+      </c>
+      <c r="X130"/>
+      <c r="Y130"/>
+      <c r="Z130"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>263</v>
+      </c>
+      <c r="B131" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131"/>
+      <c r="Q131" t="n">
+        <v>302259.805</v>
+      </c>
+      <c r="R131"/>
+      <c r="S131"/>
+      <c r="T131"/>
+      <c r="U131"/>
+      <c r="V131"/>
+      <c r="W131"/>
+      <c r="X131"/>
+      <c r="Y131"/>
+      <c r="Z131"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132" t="n">
+        <v>3052206.229</v>
+      </c>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+      <c r="P132" t="n">
+        <v>2312787.508</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>1379433.303</v>
+      </c>
+      <c r="R132"/>
+      <c r="S132"/>
+      <c r="T132" t="n">
+        <v>866122.845</v>
+      </c>
+      <c r="U132"/>
+      <c r="V132" t="n">
+        <v>481846.521</v>
+      </c>
+      <c r="W132"/>
+      <c r="X132"/>
+      <c r="Y132"/>
+      <c r="Z132"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" t="s">
+        <v>268</v>
+      </c>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133" t="n">
+        <v>19604544.06</v>
+      </c>
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133" t="n">
+        <v>28655477.26</v>
+      </c>
+      <c r="N133"/>
+      <c r="O133"/>
+      <c r="P133"/>
+      <c r="Q133"/>
+      <c r="R133"/>
+      <c r="S133"/>
+      <c r="T133" t="n">
+        <v>27907935.64</v>
+      </c>
+      <c r="U133"/>
+      <c r="V133"/>
+      <c r="W133"/>
+      <c r="X133"/>
+      <c r="Y133" t="n">
+        <v>20776094.92</v>
+      </c>
+      <c r="Z133"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>269</v>
+      </c>
+      <c r="B134" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" t="n">
+        <v>6535304.853</v>
+      </c>
+      <c r="D134"/>
+      <c r="E134" t="n">
+        <v>4958846.086</v>
+      </c>
+      <c r="F134"/>
+      <c r="G134" t="n">
+        <v>2403986.06</v>
+      </c>
+      <c r="H134"/>
+      <c r="I134" t="n">
+        <v>1703477.09</v>
+      </c>
+      <c r="J134"/>
+      <c r="K134" t="n">
+        <v>1266783.274</v>
+      </c>
+      <c r="L134" t="n">
+        <v>2224595.462</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1889004.384</v>
+      </c>
+      <c r="N134"/>
+      <c r="O134" t="n">
+        <v>1046284.592</v>
+      </c>
+      <c r="P134"/>
+      <c r="Q134"/>
+      <c r="R134"/>
+      <c r="S134" t="n">
+        <v>665428.006</v>
+      </c>
+      <c r="T134"/>
+      <c r="U134" t="n">
+        <v>211793.088</v>
+      </c>
+      <c r="V134"/>
+      <c r="W134" t="n">
+        <v>205847.18</v>
+      </c>
+      <c r="X134"/>
+      <c r="Y134"/>
+      <c r="Z134"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+      <c r="Q135"/>
+      <c r="R135"/>
+      <c r="S135"/>
+      <c r="T135" t="n">
+        <v>354098.573</v>
+      </c>
+      <c r="U135"/>
+      <c r="V135"/>
+      <c r="W135"/>
+      <c r="X135"/>
+      <c r="Y135"/>
+      <c r="Z135"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>273</v>
+      </c>
+      <c r="B136" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+      <c r="Q136"/>
+      <c r="R136"/>
+      <c r="S136" t="n">
+        <v>3022026.618</v>
+      </c>
+      <c r="T136"/>
+      <c r="U136"/>
+      <c r="V136"/>
+      <c r="W136"/>
+      <c r="X136" t="n">
+        <v>3395370.678</v>
+      </c>
+      <c r="Y136"/>
+      <c r="Z136"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137"/>
+      <c r="R137"/>
+      <c r="S137"/>
+      <c r="T137"/>
+      <c r="U137"/>
+      <c r="V137"/>
+      <c r="W137"/>
+      <c r="X137"/>
+      <c r="Y137"/>
+      <c r="Z137"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138" t="n">
+        <v>51479.418</v>
+      </c>
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+      <c r="Q138"/>
+      <c r="R138"/>
+      <c r="S138"/>
+      <c r="T138"/>
+      <c r="U138"/>
+      <c r="V138"/>
+      <c r="W138"/>
+      <c r="X138"/>
+      <c r="Y138"/>
+      <c r="Z138"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139" t="n">
+        <v>477847.84</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
+      <c r="H139" t="n">
+        <v>579550.25</v>
+      </c>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139" t="n">
+        <v>243869.25</v>
+      </c>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+      <c r="Q139"/>
+      <c r="R139" t="n">
+        <v>138400.2</v>
+      </c>
+      <c r="S139"/>
+      <c r="T139"/>
+      <c r="U139"/>
+      <c r="V139"/>
+      <c r="W139" t="n">
+        <v>78063.34</v>
+      </c>
+      <c r="X139"/>
+      <c r="Y139"/>
+      <c r="Z139"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>281</v>
+      </c>
+      <c r="B140" t="s">
+        <v>282</v>
+      </c>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140" t="n">
+        <v>1060087.314</v>
+      </c>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140" t="n">
+        <v>747756.45</v>
+      </c>
+      <c r="P140" t="n">
+        <v>1892428.206</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>942523.454</v>
+      </c>
+      <c r="R140" t="n">
+        <v>982274.254</v>
+      </c>
+      <c r="S140" t="n">
+        <v>926455.55</v>
+      </c>
+      <c r="T140" t="n">
+        <v>660216.874</v>
+      </c>
+      <c r="U140" t="n">
+        <v>70363.511</v>
+      </c>
+      <c r="V140" t="n">
+        <v>256467.888</v>
+      </c>
+      <c r="W140" t="n">
+        <v>425611.521</v>
+      </c>
+      <c r="X140" t="n">
+        <v>58446.91</v>
+      </c>
+      <c r="Y140"/>
+      <c r="Z140"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>283</v>
+      </c>
+      <c r="B141" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141" t="n">
+        <v>2536064.87</v>
+      </c>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141" t="n">
+        <v>1090911.723</v>
+      </c>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+      <c r="Q141"/>
+      <c r="R141"/>
+      <c r="S141"/>
+      <c r="T141"/>
+      <c r="U141"/>
+      <c r="V141"/>
+      <c r="W141"/>
+      <c r="X141"/>
+      <c r="Y141"/>
+      <c r="Z141"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>285</v>
+      </c>
+      <c r="B142" t="s">
+        <v>286</v>
+      </c>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142"/>
+      <c r="P142"/>
+      <c r="Q142"/>
+      <c r="R142"/>
+      <c r="S142"/>
+      <c r="T142"/>
+      <c r="U142"/>
+      <c r="V142"/>
+      <c r="W142"/>
+      <c r="X142"/>
+      <c r="Y142"/>
+      <c r="Z142"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>287</v>
+      </c>
+      <c r="B143" t="s">
+        <v>288</v>
+      </c>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143" t="n">
+        <v>13512646.05</v>
+      </c>
+      <c r="F143"/>
+      <c r="G143"/>
+      <c r="H143"/>
+      <c r="I143" t="n">
+        <v>13488987.36</v>
+      </c>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="L143" t="n">
+        <v>13970685.54</v>
+      </c>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143" t="n">
+        <v>14676204.57</v>
+      </c>
+      <c r="P143"/>
+      <c r="Q143"/>
+      <c r="R143"/>
+      <c r="S143" t="n">
+        <v>15366734.53</v>
+      </c>
+      <c r="T143"/>
+      <c r="U143"/>
+      <c r="V143" t="n">
+        <v>12458866.74</v>
+      </c>
+      <c r="W143"/>
+      <c r="X143"/>
+      <c r="Y143"/>
+      <c r="Z143" t="n">
+        <v>14197299.35</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>289</v>
+      </c>
+      <c r="B144" t="s">
+        <v>290</v>
+      </c>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144" t="n">
+        <v>15645.08</v>
+      </c>
+      <c r="F144"/>
+      <c r="G144"/>
+      <c r="H144" t="n">
+        <v>1009641.06</v>
+      </c>
+      <c r="I144" t="n">
+        <v>985403.748</v>
+      </c>
+      <c r="J144"/>
+      <c r="K144"/>
+      <c r="L144" t="n">
+        <v>1008369.005</v>
+      </c>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144" t="n">
+        <v>202450.5</v>
+      </c>
+      <c r="P144" t="n">
+        <v>52594.245</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>18980.64</v>
+      </c>
+      <c r="R144" t="n">
+        <v>23552.575</v>
+      </c>
+      <c r="S144" t="n">
+        <v>65502.85</v>
+      </c>
+      <c r="T144" t="n">
+        <v>27905.61</v>
+      </c>
+      <c r="U144" t="n">
+        <v>0</v>
+      </c>
+      <c r="V144" t="n">
+        <v>27631.98</v>
+      </c>
+      <c r="W144" t="n">
+        <v>0</v>
+      </c>
+      <c r="X144"/>
+      <c r="Y144"/>
+      <c r="Z144"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>291</v>
+      </c>
+      <c r="B145" t="s">
+        <v>292</v>
+      </c>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145" t="n">
+        <v>28391.913</v>
+      </c>
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="H145" t="n">
+        <v>17734.107</v>
+      </c>
+      <c r="I145" t="n">
+        <v>22083.578</v>
+      </c>
+      <c r="J145" t="n">
+        <v>19950.349</v>
+      </c>
+      <c r="K145" t="n">
+        <v>26662.584</v>
+      </c>
+      <c r="L145"/>
+      <c r="M145" t="n">
+        <v>15940.037</v>
+      </c>
+      <c r="N145" t="n">
+        <v>20293.248</v>
+      </c>
+      <c r="O145" t="n">
+        <v>26287.25</v>
+      </c>
+      <c r="P145" t="n">
+        <v>31591.405</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>39553.482</v>
+      </c>
+      <c r="R145" t="n">
+        <v>43559.531</v>
+      </c>
+      <c r="S145" t="n">
+        <v>24310.584</v>
+      </c>
+      <c r="T145" t="n">
+        <v>16024.243</v>
+      </c>
+      <c r="U145" t="n">
+        <v>8707.135</v>
+      </c>
+      <c r="V145" t="n">
+        <v>9073.164</v>
+      </c>
+      <c r="W145" t="n">
+        <v>6743.964</v>
+      </c>
+      <c r="X145" t="n">
+        <v>8458.715</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>10525.284</v>
+      </c>
+      <c r="Z145"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>293</v>
+      </c>
+      <c r="B146" t="s">
+        <v>294</v>
+      </c>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146"/>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146"/>
+      <c r="Q146"/>
+      <c r="R146"/>
+      <c r="S146"/>
+      <c r="T146"/>
+      <c r="U146"/>
+      <c r="V146"/>
+      <c r="W146"/>
+      <c r="X146"/>
+      <c r="Y146"/>
+      <c r="Z146"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>295</v>
+      </c>
+      <c r="B147" t="s">
+        <v>296</v>
+      </c>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147"/>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147"/>
+      <c r="P147"/>
+      <c r="Q147"/>
+      <c r="R147"/>
+      <c r="S147"/>
+      <c r="T147"/>
+      <c r="U147"/>
+      <c r="V147"/>
+      <c r="W147"/>
+      <c r="X147"/>
+      <c r="Y147"/>
+      <c r="Z147"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>297</v>
+      </c>
+      <c r="B148" t="s">
+        <v>298</v>
+      </c>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148" t="n">
+        <v>910432.204</v>
+      </c>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148" t="n">
+        <v>2112008.966</v>
+      </c>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148" t="n">
+        <v>2320090.76</v>
+      </c>
+      <c r="L148" t="n">
+        <v>2732124.728</v>
+      </c>
+      <c r="M148"/>
+      <c r="N148" t="n">
+        <v>2380101.204</v>
+      </c>
+      <c r="O148" t="n">
+        <v>4015379.087</v>
+      </c>
+      <c r="P148" t="n">
+        <v>4916949.941</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>4170298.569</v>
+      </c>
+      <c r="R148" t="n">
+        <v>3519800.635</v>
+      </c>
+      <c r="S148" t="n">
+        <v>1802755.477</v>
+      </c>
+      <c r="T148"/>
+      <c r="U148"/>
+      <c r="V148"/>
+      <c r="W148"/>
+      <c r="X148"/>
+      <c r="Y148"/>
+      <c r="Z148"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>299</v>
+      </c>
+      <c r="B149" t="s">
+        <v>300</v>
+      </c>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149"/>
+      <c r="F149" t="n">
+        <v>44405333.2</v>
+      </c>
+      <c r="G149"/>
+      <c r="H149"/>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149" t="n">
+        <v>37245229.68</v>
+      </c>
+      <c r="L149"/>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149" t="n">
+        <v>31871157.09</v>
+      </c>
+      <c r="P149"/>
+      <c r="Q149" t="n">
+        <v>25571437.8</v>
+      </c>
+      <c r="R149"/>
+      <c r="S149" t="n">
+        <v>17862307.2</v>
+      </c>
+      <c r="T149"/>
+      <c r="U149" t="n">
+        <v>14317570.86</v>
+      </c>
+      <c r="V149"/>
+      <c r="W149" t="n">
+        <v>3416447.25</v>
+      </c>
+      <c r="X149"/>
+      <c r="Y149" t="n">
+        <v>2166058.76</v>
+      </c>
+      <c r="Z149"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>301</v>
+      </c>
+      <c r="B150" t="s">
+        <v>302</v>
+      </c>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150"/>
+      <c r="G150"/>
+      <c r="H150"/>
+      <c r="I150"/>
+      <c r="J150"/>
+      <c r="K150" t="n">
+        <v>1734275.405</v>
+      </c>
+      <c r="L150"/>
+      <c r="M150"/>
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150"/>
+      <c r="Q150"/>
+      <c r="R150" t="n">
+        <v>1969658.846</v>
+      </c>
+      <c r="S150"/>
+      <c r="T150"/>
+      <c r="U150"/>
+      <c r="V150"/>
+      <c r="W150"/>
+      <c r="X150"/>
+      <c r="Y150"/>
+      <c r="Z150"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>303</v>
+      </c>
+      <c r="B151" t="s">
+        <v>304</v>
+      </c>
+      <c r="C151"/>
+      <c r="D151" t="n">
+        <v>4907343.078</v>
+      </c>
+      <c r="E151"/>
+      <c r="F151" t="n">
+        <v>5497729.957</v>
+      </c>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151" t="n">
+        <v>5631804.138</v>
+      </c>
+      <c r="J151"/>
+      <c r="K151" t="n">
+        <v>5331784.786</v>
+      </c>
+      <c r="L151"/>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151" t="n">
+        <v>7037859.274</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>7184182.485</v>
+      </c>
+      <c r="R151"/>
+      <c r="S151" t="n">
+        <v>8071582.381</v>
+      </c>
+      <c r="T151"/>
+      <c r="U151"/>
+      <c r="V151"/>
+      <c r="W151" t="n">
+        <v>9822863.252</v>
+      </c>
+      <c r="X151"/>
+      <c r="Y151"/>
+      <c r="Z151"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>305</v>
+      </c>
+      <c r="B152" t="s">
+        <v>306</v>
+      </c>
+      <c r="C152"/>
+      <c r="D152"/>
+      <c r="E152"/>
+      <c r="F152"/>
+      <c r="G152"/>
+      <c r="H152"/>
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
+      <c r="P152"/>
+      <c r="Q152"/>
+      <c r="R152"/>
+      <c r="S152"/>
+      <c r="T152"/>
+      <c r="U152"/>
+      <c r="V152"/>
+      <c r="W152"/>
+      <c r="X152"/>
+      <c r="Y152"/>
+      <c r="Z152"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/user-data/poor-people/poor-people.xlsx
+++ b/user-data/poor-people/poor-people.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
   <si>
     <t>id</t>
   </si>
@@ -1043,7 +1043,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1486,6 +1489,11 @@
         <v>344</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/poor-people/poor-people.xlsx
+++ b/user-data/poor-people/poor-people.xlsx
@@ -55,7 +55,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -115,7 +115,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -146,12 +146,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -218,6 +212,12 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -691,7 +691,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -703,7 +703,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SN</t>
@@ -829,7 +829,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1000,7 +1000,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -5411,7 +5411,7 @@
         <v>2000</v>
       </c>
       <c r="D302" t="n">
-        <v>4644424.4</v>
+        <v>4578980.26</v>
       </c>
     </row>
     <row r="303">
@@ -5425,7 +5425,7 @@
         <v>2001</v>
       </c>
       <c r="D303" t="n">
-        <v>4767552</v>
+        <v>4526326.97</v>
       </c>
     </row>
     <row r="304">
@@ -5439,7 +5439,7 @@
         <v>2002</v>
       </c>
       <c r="D304" t="n">
-        <v>4894196.6</v>
+        <v>4462892.44</v>
       </c>
     </row>
     <row r="305">
@@ -5453,7 +5453,7 @@
         <v>2003</v>
       </c>
       <c r="D305" t="n">
-        <v>5193411.06666667</v>
+        <v>4390187.62</v>
       </c>
     </row>
     <row r="306">
@@ -5467,7 +5467,7 @@
         <v>2004</v>
       </c>
       <c r="D306" t="n">
-        <v>5506220.53333333</v>
+        <v>4308927.3</v>
       </c>
     </row>
     <row r="307">
@@ -5481,7 +5481,7 @@
         <v>2005</v>
       </c>
       <c r="D307" t="n">
-        <v>5833028.5</v>
+        <v>4289947.2</v>
       </c>
     </row>
     <row r="308">
@@ -5495,7 +5495,7 @@
         <v>2006</v>
       </c>
       <c r="D308" t="n">
-        <v>6150633.33333334</v>
+        <v>4265758.5</v>
       </c>
     </row>
     <row r="309">
@@ -5509,7 +5509,7 @@
         <v>2007</v>
       </c>
       <c r="D309" t="n">
-        <v>6480746.09999999</v>
+        <v>4236825.4</v>
       </c>
     </row>
     <row r="310">
@@ -5523,7 +5523,7 @@
         <v>2008</v>
       </c>
       <c r="D310" t="n">
-        <v>6824040</v>
+        <v>2912274.9</v>
       </c>
     </row>
     <row r="311">
@@ -5536,7 +5536,9 @@
       <c r="C311" t="n">
         <v>2009</v>
       </c>
-      <c r="D311"/>
+      <c r="D311" t="n">
+        <v>1828819.2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
@@ -5548,7 +5550,9 @@
       <c r="C312" t="n">
         <v>2010</v>
       </c>
-      <c r="D312"/>
+      <c r="D312" t="n">
+        <v>1616062.5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
@@ -5560,7 +5564,9 @@
       <c r="C313" t="n">
         <v>2011</v>
       </c>
-      <c r="D313"/>
+      <c r="D313" t="n">
+        <v>1467802.5</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
@@ -5609,7 +5615,7 @@
         <v>2000</v>
       </c>
       <c r="D317" t="n">
-        <v>4578980.26</v>
+        <v>4565013.34</v>
       </c>
     </row>
     <row r="318">
@@ -5623,7 +5629,7 @@
         <v>2001</v>
       </c>
       <c r="D318" t="n">
-        <v>4526326.97</v>
+        <v>3971633.6</v>
       </c>
     </row>
     <row r="319">
@@ -5637,7 +5643,7 @@
         <v>2002</v>
       </c>
       <c r="D319" t="n">
-        <v>4462892.44</v>
+        <v>4158029.88333333</v>
       </c>
     </row>
     <row r="320">
@@ -5651,7 +5657,7 @@
         <v>2003</v>
       </c>
       <c r="D320" t="n">
-        <v>4390187.62</v>
+        <v>4351874.63333334</v>
       </c>
     </row>
     <row r="321">
@@ -5665,7 +5671,7 @@
         <v>2004</v>
       </c>
       <c r="D321" t="n">
-        <v>4308927.3</v>
+        <v>4553346.6</v>
       </c>
     </row>
     <row r="322">
@@ -5679,7 +5685,7 @@
         <v>2005</v>
       </c>
       <c r="D322" t="n">
-        <v>4289947.2</v>
+        <v>4762624.53333333</v>
       </c>
     </row>
     <row r="323">
@@ -5693,7 +5699,7 @@
         <v>2006</v>
       </c>
       <c r="D323" t="n">
-        <v>4265758.5</v>
+        <v>4979887.18333334</v>
       </c>
     </row>
     <row r="324">
@@ -5707,7 +5713,7 @@
         <v>2007</v>
       </c>
       <c r="D324" t="n">
-        <v>4236825.4</v>
+        <v>5205865.5</v>
       </c>
     </row>
     <row r="325">
@@ -5720,9 +5726,7 @@
       <c r="C325" t="n">
         <v>2008</v>
       </c>
-      <c r="D325" t="n">
-        <v>2912274.9</v>
-      </c>
+      <c r="D325"/>
     </row>
     <row r="326">
       <c r="A326" t="s">
@@ -5734,9 +5738,7 @@
       <c r="C326" t="n">
         <v>2009</v>
       </c>
-      <c r="D326" t="n">
-        <v>1828819.2</v>
-      </c>
+      <c r="D326"/>
     </row>
     <row r="327">
       <c r="A327" t="s">
@@ -5748,9 +5750,7 @@
       <c r="C327" t="n">
         <v>2010</v>
       </c>
-      <c r="D327" t="n">
-        <v>1616062.5</v>
-      </c>
+      <c r="D327"/>
     </row>
     <row r="328">
       <c r="A328" t="s">
@@ -5762,9 +5762,7 @@
       <c r="C328" t="n">
         <v>2011</v>
       </c>
-      <c r="D328" t="n">
-        <v>1467802.5</v>
-      </c>
+      <c r="D328"/>
     </row>
     <row r="329">
       <c r="A329" t="s">
@@ -5812,9 +5810,7 @@
       <c r="C332" t="n">
         <v>2000</v>
       </c>
-      <c r="D332" t="n">
-        <v>4565013.34</v>
-      </c>
+      <c r="D332"/>
     </row>
     <row r="333">
       <c r="A333" t="s">
@@ -5826,9 +5822,7 @@
       <c r="C333" t="n">
         <v>2001</v>
       </c>
-      <c r="D333" t="n">
-        <v>3971633.6</v>
-      </c>
+      <c r="D333"/>
     </row>
     <row r="334">
       <c r="A334" t="s">
@@ -5841,7 +5835,7 @@
         <v>2002</v>
       </c>
       <c r="D334" t="n">
-        <v>4158029.88333333</v>
+        <v>96481.8</v>
       </c>
     </row>
     <row r="335">
@@ -5855,7 +5849,7 @@
         <v>2003</v>
       </c>
       <c r="D335" t="n">
-        <v>4351874.63333334</v>
+        <v>91345.2</v>
       </c>
     </row>
     <row r="336">
@@ -5869,7 +5863,7 @@
         <v>2004</v>
       </c>
       <c r="D336" t="n">
-        <v>4553346.6</v>
+        <v>85794</v>
       </c>
     </row>
     <row r="337">
@@ -5883,7 +5877,7 @@
         <v>2005</v>
       </c>
       <c r="D337" t="n">
-        <v>4762624.53333333</v>
+        <v>79705.6</v>
       </c>
     </row>
     <row r="338">
@@ -5897,7 +5891,7 @@
         <v>2006</v>
       </c>
       <c r="D338" t="n">
-        <v>4979887.18333334</v>
+        <v>73167.6</v>
       </c>
     </row>
     <row r="339">
@@ -5911,7 +5905,7 @@
         <v>2007</v>
       </c>
       <c r="D339" t="n">
-        <v>5205865.5</v>
+        <v>66404.8</v>
       </c>
     </row>
     <row r="340">
@@ -6008,7 +6002,9 @@
       <c r="C347" t="n">
         <v>2000</v>
       </c>
-      <c r="D347"/>
+      <c r="D347" t="n">
+        <v>2476783.47272727</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
@@ -6020,7 +6016,9 @@
       <c r="C348" t="n">
         <v>2001</v>
       </c>
-      <c r="D348"/>
+      <c r="D348" t="n">
+        <v>2451946.98181818</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
@@ -6033,7 +6031,7 @@
         <v>2002</v>
       </c>
       <c r="D349" t="n">
-        <v>96481.8</v>
+        <v>2422694.68181818</v>
       </c>
     </row>
     <row r="350">
@@ -6047,7 +6045,7 @@
         <v>2003</v>
       </c>
       <c r="D350" t="n">
-        <v>91345.2</v>
+        <v>2391069</v>
       </c>
     </row>
     <row r="351">
@@ -6061,7 +6059,7 @@
         <v>2004</v>
       </c>
       <c r="D351" t="n">
-        <v>85794</v>
+        <v>2434139.4</v>
       </c>
     </row>
     <row r="352">
@@ -6075,7 +6073,7 @@
         <v>2005</v>
       </c>
       <c r="D352" t="n">
-        <v>79705.6</v>
+        <v>2479189.9</v>
       </c>
     </row>
     <row r="353">
@@ -6089,7 +6087,7 @@
         <v>2006</v>
       </c>
       <c r="D353" t="n">
-        <v>73167.6</v>
+        <v>2526854.4</v>
       </c>
     </row>
     <row r="354">
@@ -6103,7 +6101,7 @@
         <v>2007</v>
       </c>
       <c r="D354" t="n">
-        <v>66404.8</v>
+        <v>2577142.5</v>
       </c>
     </row>
     <row r="355">
@@ -6116,7 +6114,9 @@
       <c r="C355" t="n">
         <v>2008</v>
       </c>
-      <c r="D355"/>
+      <c r="D355" t="n">
+        <v>2629435.5</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
@@ -6200,9 +6200,7 @@
       <c r="C362" t="n">
         <v>2000</v>
       </c>
-      <c r="D362" t="n">
-        <v>2476783.47272727</v>
-      </c>
+      <c r="D362"/>
     </row>
     <row r="363">
       <c r="A363" t="s">
@@ -6214,9 +6212,7 @@
       <c r="C363" t="n">
         <v>2001</v>
       </c>
-      <c r="D363" t="n">
-        <v>2451946.98181818</v>
-      </c>
+      <c r="D363"/>
     </row>
     <row r="364">
       <c r="A364" t="s">
@@ -6229,7 +6225,7 @@
         <v>2002</v>
       </c>
       <c r="D364" t="n">
-        <v>2422694.68181818</v>
+        <v>4866625.8</v>
       </c>
     </row>
     <row r="365">
@@ -6243,7 +6239,7 @@
         <v>2003</v>
       </c>
       <c r="D365" t="n">
-        <v>2391069</v>
+        <v>5083937.77777778</v>
       </c>
     </row>
     <row r="366">
@@ -6257,7 +6253,7 @@
         <v>2004</v>
       </c>
       <c r="D366" t="n">
-        <v>2434139.4</v>
+        <v>4962061.44444444</v>
       </c>
     </row>
     <row r="367">
@@ -6271,7 +6267,7 @@
         <v>2005</v>
       </c>
       <c r="D367" t="n">
-        <v>2479189.9</v>
+        <v>4830713.33333334</v>
       </c>
     </row>
     <row r="368">
@@ -6285,7 +6281,7 @@
         <v>2006</v>
       </c>
       <c r="D368" t="n">
-        <v>2526854.4</v>
+        <v>4689976.2</v>
       </c>
     </row>
     <row r="369">
@@ -6299,7 +6295,7 @@
         <v>2007</v>
       </c>
       <c r="D369" t="n">
-        <v>2577142.5</v>
+        <v>4539341.64444445</v>
       </c>
     </row>
     <row r="370">
@@ -6313,7 +6309,7 @@
         <v>2008</v>
       </c>
       <c r="D370" t="n">
-        <v>2629435.5</v>
+        <v>4377851.33333333</v>
       </c>
     </row>
     <row r="371">
@@ -6326,7 +6322,9 @@
       <c r="C371" t="n">
         <v>2009</v>
       </c>
-      <c r="D371"/>
+      <c r="D371" t="n">
+        <v>4205503.28888889</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
@@ -6338,7 +6336,9 @@
       <c r="C372" t="n">
         <v>2010</v>
       </c>
-      <c r="D372"/>
+      <c r="D372" t="n">
+        <v>4022182.55555555</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
@@ -6350,7 +6350,9 @@
       <c r="C373" t="n">
         <v>2011</v>
       </c>
-      <c r="D373"/>
+      <c r="D373" t="n">
+        <v>3826565.6</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
@@ -6398,7 +6400,9 @@
       <c r="C377" t="n">
         <v>2000</v>
       </c>
-      <c r="D377"/>
+      <c r="D377" t="n">
+        <v>332596.8</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
@@ -6410,7 +6414,9 @@
       <c r="C378" t="n">
         <v>2001</v>
       </c>
-      <c r="D378"/>
+      <c r="D378" t="n">
+        <v>314035.333333334</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
@@ -6423,7 +6429,7 @@
         <v>2002</v>
       </c>
       <c r="D379" t="n">
-        <v>4866625.8</v>
+        <v>293513.866666666</v>
       </c>
     </row>
     <row r="380">
@@ -6437,7 +6443,7 @@
         <v>2003</v>
       </c>
       <c r="D380" t="n">
-        <v>5083937.77777778</v>
+        <v>273997.4</v>
       </c>
     </row>
     <row r="381">
@@ -6451,7 +6457,7 @@
         <v>2004</v>
       </c>
       <c r="D381" t="n">
-        <v>4962061.44444444</v>
+        <v>241630.2</v>
       </c>
     </row>
     <row r="382">
@@ -6465,7 +6471,7 @@
         <v>2005</v>
       </c>
       <c r="D382" t="n">
-        <v>4830713.33333334</v>
+        <v>208528.5</v>
       </c>
     </row>
     <row r="383">
@@ -6479,7 +6485,7 @@
         <v>2006</v>
       </c>
       <c r="D383" t="n">
-        <v>4689976.2</v>
+        <v>174752.4</v>
       </c>
     </row>
     <row r="384">
@@ -6493,7 +6499,7 @@
         <v>2007</v>
       </c>
       <c r="D384" t="n">
-        <v>4539341.64444445</v>
+        <v>188157</v>
       </c>
     </row>
     <row r="385">
@@ -6507,7 +6513,7 @@
         <v>2008</v>
       </c>
       <c r="D385" t="n">
-        <v>4377851.33333333</v>
+        <v>201912.7</v>
       </c>
     </row>
     <row r="386">
@@ -6521,7 +6527,7 @@
         <v>2009</v>
       </c>
       <c r="D386" t="n">
-        <v>4205503.28888889</v>
+        <v>216025.6</v>
       </c>
     </row>
     <row r="387">
@@ -6535,7 +6541,7 @@
         <v>2010</v>
       </c>
       <c r="D387" t="n">
-        <v>4022182.55555555</v>
+        <v>180046.3</v>
       </c>
     </row>
     <row r="388">
@@ -6549,7 +6555,7 @@
         <v>2011</v>
       </c>
       <c r="D388" t="n">
-        <v>3826565.6</v>
+        <v>143224.8</v>
       </c>
     </row>
     <row r="389">
@@ -6599,7 +6605,7 @@
         <v>2000</v>
       </c>
       <c r="D392" t="n">
-        <v>332596.8</v>
+        <v>422730152.666666</v>
       </c>
     </row>
     <row r="393">
@@ -6613,7 +6619,7 @@
         <v>2001</v>
       </c>
       <c r="D393" t="n">
-        <v>314035.333333334</v>
+        <v>391899974.666667</v>
       </c>
     </row>
     <row r="394">
@@ -6627,7 +6633,7 @@
         <v>2002</v>
       </c>
       <c r="D394" t="n">
-        <v>293513.866666666</v>
+        <v>360439118</v>
       </c>
     </row>
     <row r="395">
@@ -6641,7 +6647,7 @@
         <v>2003</v>
       </c>
       <c r="D395" t="n">
-        <v>273997.4</v>
+        <v>309670967.666666</v>
       </c>
     </row>
     <row r="396">
@@ -6655,7 +6661,7 @@
         <v>2004</v>
       </c>
       <c r="D396" t="n">
-        <v>241630.2</v>
+        <v>258242826.666667</v>
       </c>
     </row>
     <row r="397">
@@ -6669,7 +6675,7 @@
         <v>2005</v>
       </c>
       <c r="D397" t="n">
-        <v>208528.5</v>
+        <v>206202212</v>
       </c>
     </row>
     <row r="398">
@@ -6683,7 +6689,7 @@
         <v>2006</v>
       </c>
       <c r="D398" t="n">
-        <v>174752.4</v>
+        <v>192264608</v>
       </c>
     </row>
     <row r="399">
@@ -6697,7 +6703,7 @@
         <v>2007</v>
       </c>
       <c r="D399" t="n">
-        <v>188157</v>
+        <v>178153935</v>
       </c>
     </row>
     <row r="400">
@@ -6711,7 +6717,7 @@
         <v>2008</v>
       </c>
       <c r="D400" t="n">
-        <v>201912.7</v>
+        <v>163877668</v>
       </c>
     </row>
     <row r="401">
@@ -6725,7 +6731,7 @@
         <v>2009</v>
       </c>
       <c r="D401" t="n">
-        <v>216025.6</v>
+        <v>143658925</v>
       </c>
     </row>
     <row r="402">
@@ -6739,7 +6745,7 @@
         <v>2010</v>
       </c>
       <c r="D402" t="n">
-        <v>180046.3</v>
+        <v>123229629</v>
       </c>
     </row>
     <row r="403">
@@ -6753,7 +6759,7 @@
         <v>2011</v>
       </c>
       <c r="D403" t="n">
-        <v>143224.8</v>
+        <v>84344110</v>
       </c>
     </row>
     <row r="404">
@@ -6803,7 +6809,7 @@
         <v>2000</v>
       </c>
       <c r="D407" t="n">
-        <v>422730152.666666</v>
+        <v>7192836</v>
       </c>
     </row>
     <row r="408">
@@ -6817,7 +6823,7 @@
         <v>2001</v>
       </c>
       <c r="D408" t="n">
-        <v>391899974.666667</v>
+        <v>7289380.4</v>
       </c>
     </row>
     <row r="409">
@@ -6831,7 +6837,7 @@
         <v>2002</v>
       </c>
       <c r="D409" t="n">
-        <v>360439118</v>
+        <v>4604050.6</v>
       </c>
     </row>
     <row r="410">
@@ -6845,7 +6851,7 @@
         <v>2003</v>
       </c>
       <c r="D410" t="n">
-        <v>309670967.666666</v>
+        <v>4327186.6</v>
       </c>
     </row>
     <row r="411">
@@ -6859,7 +6865,7 @@
         <v>2004</v>
       </c>
       <c r="D411" t="n">
-        <v>258242826.666667</v>
+        <v>3817356.8</v>
       </c>
     </row>
     <row r="412">
@@ -6873,7 +6879,7 @@
         <v>2005</v>
       </c>
       <c r="D412" t="n">
-        <v>206202212</v>
+        <v>3375364.3</v>
       </c>
     </row>
     <row r="413">
@@ -6887,7 +6893,7 @@
         <v>2006</v>
       </c>
       <c r="D413" t="n">
-        <v>192264608</v>
+        <v>4792022.4</v>
       </c>
     </row>
     <row r="414">
@@ -6901,7 +6907,7 @@
         <v>2007</v>
       </c>
       <c r="D414" t="n">
-        <v>178153935</v>
+        <v>3883146.8</v>
       </c>
     </row>
     <row r="415">
@@ -6915,7 +6921,7 @@
         <v>2008</v>
       </c>
       <c r="D415" t="n">
-        <v>163877668</v>
+        <v>3778335</v>
       </c>
     </row>
     <row r="416">
@@ -6929,7 +6935,7 @@
         <v>2009</v>
       </c>
       <c r="D416" t="n">
-        <v>143658925</v>
+        <v>3265475.4</v>
       </c>
     </row>
     <row r="417">
@@ -6943,7 +6949,7 @@
         <v>2010</v>
       </c>
       <c r="D417" t="n">
-        <v>123229629</v>
+        <v>2807967</v>
       </c>
     </row>
     <row r="418">
@@ -6957,7 +6963,7 @@
         <v>2011</v>
       </c>
       <c r="D418" t="n">
-        <v>84344110</v>
+        <v>2279227.5</v>
       </c>
     </row>
     <row r="419">
@@ -6970,7 +6976,9 @@
       <c r="C419" t="n">
         <v>2012</v>
       </c>
-      <c r="D419"/>
+      <c r="D419" t="n">
+        <v>2622566.6</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="s">
@@ -7006,9 +7014,7 @@
       <c r="C422" t="n">
         <v>2000</v>
       </c>
-      <c r="D422" t="n">
-        <v>7192836</v>
-      </c>
+      <c r="D422"/>
     </row>
     <row r="423">
       <c r="A423" t="s">
@@ -7020,9 +7026,7 @@
       <c r="C423" t="n">
         <v>2001</v>
       </c>
-      <c r="D423" t="n">
-        <v>7289380.4</v>
-      </c>
+      <c r="D423"/>
     </row>
     <row r="424">
       <c r="A424" t="s">
@@ -7034,9 +7038,7 @@
       <c r="C424" t="n">
         <v>2002</v>
       </c>
-      <c r="D424" t="n">
-        <v>4604050.6</v>
-      </c>
+      <c r="D424"/>
     </row>
     <row r="425">
       <c r="A425" t="s">
@@ -7048,9 +7050,7 @@
       <c r="C425" t="n">
         <v>2003</v>
       </c>
-      <c r="D425" t="n">
-        <v>4327186.6</v>
-      </c>
+      <c r="D425"/>
     </row>
     <row r="426">
       <c r="A426" t="s">
@@ -7063,7 +7063,7 @@
         <v>2004</v>
       </c>
       <c r="D426" t="n">
-        <v>3817356.8</v>
+        <v>273432.3</v>
       </c>
     </row>
     <row r="427">
@@ -7076,9 +7076,7 @@
       <c r="C427" t="n">
         <v>2005</v>
       </c>
-      <c r="D427" t="n">
-        <v>3375364.3</v>
-      </c>
+      <c r="D427"/>
     </row>
     <row r="428">
       <c r="A428" t="s">
@@ -7090,9 +7088,7 @@
       <c r="C428" t="n">
         <v>2006</v>
       </c>
-      <c r="D428" t="n">
-        <v>4792022.4</v>
-      </c>
+      <c r="D428"/>
     </row>
     <row r="429">
       <c r="A429" t="s">
@@ -7104,9 +7100,7 @@
       <c r="C429" t="n">
         <v>2007</v>
       </c>
-      <c r="D429" t="n">
-        <v>3883146.8</v>
-      </c>
+      <c r="D429"/>
     </row>
     <row r="430">
       <c r="A430" t="s">
@@ -7118,9 +7112,7 @@
       <c r="C430" t="n">
         <v>2008</v>
       </c>
-      <c r="D430" t="n">
-        <v>3778335</v>
-      </c>
+      <c r="D430"/>
     </row>
     <row r="431">
       <c r="A431" t="s">
@@ -7132,9 +7124,7 @@
       <c r="C431" t="n">
         <v>2009</v>
       </c>
-      <c r="D431" t="n">
-        <v>3265475.4</v>
-      </c>
+      <c r="D431"/>
     </row>
     <row r="432">
       <c r="A432" t="s">
@@ -7146,9 +7136,7 @@
       <c r="C432" t="n">
         <v>2010</v>
       </c>
-      <c r="D432" t="n">
-        <v>2807967</v>
-      </c>
+      <c r="D432"/>
     </row>
     <row r="433">
       <c r="A433" t="s">
@@ -7160,9 +7148,7 @@
       <c r="C433" t="n">
         <v>2011</v>
       </c>
-      <c r="D433" t="n">
-        <v>2279227.5</v>
-      </c>
+      <c r="D433"/>
     </row>
     <row r="434">
       <c r="A434" t="s">
@@ -7174,9 +7160,7 @@
       <c r="C434" t="n">
         <v>2012</v>
       </c>
-      <c r="D434" t="n">
-        <v>2622566.6</v>
-      </c>
+      <c r="D434"/>
     </row>
     <row r="435">
       <c r="A435" t="s">
@@ -7260,9 +7244,7 @@
       <c r="C441" t="n">
         <v>2004</v>
       </c>
-      <c r="D441" t="n">
-        <v>273432.3</v>
-      </c>
+      <c r="D441"/>
     </row>
     <row r="442">
       <c r="A442" t="s">
@@ -7274,7 +7256,9 @@
       <c r="C442" t="n">
         <v>2005</v>
       </c>
-      <c r="D442"/>
+      <c r="D442" t="n">
+        <v>1812350</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="s">
@@ -7286,7 +7270,9 @@
       <c r="C443" t="n">
         <v>2006</v>
       </c>
-      <c r="D443"/>
+      <c r="D443" t="n">
+        <v>1742573.4</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="s">
@@ -7298,7 +7284,9 @@
       <c r="C444" t="n">
         <v>2007</v>
       </c>
-      <c r="D444"/>
+      <c r="D444" t="n">
+        <v>1667326.46666667</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="s">
@@ -7310,7 +7298,9 @@
       <c r="C445" t="n">
         <v>2008</v>
       </c>
-      <c r="D445"/>
+      <c r="D445" t="n">
+        <v>1586290</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="s">
@@ -7322,7 +7312,9 @@
       <c r="C446" t="n">
         <v>2009</v>
       </c>
-      <c r="D446"/>
+      <c r="D446" t="n">
+        <v>1499144.8</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
@@ -7334,7 +7326,9 @@
       <c r="C447" t="n">
         <v>2010</v>
       </c>
-      <c r="D447"/>
+      <c r="D447" t="n">
+        <v>1405571.66666667</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="s">
@@ -7346,7 +7340,9 @@
       <c r="C448" t="n">
         <v>2011</v>
       </c>
-      <c r="D448"/>
+      <c r="D448" t="n">
+        <v>1305251.4</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="s">
@@ -7394,7 +7390,9 @@
       <c r="C452" t="n">
         <v>2000</v>
       </c>
-      <c r="D452"/>
+      <c r="D452" t="n">
+        <v>211836</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="s">
@@ -7406,7 +7404,9 @@
       <c r="C453" t="n">
         <v>2001</v>
       </c>
-      <c r="D453"/>
+      <c r="D453" t="n">
+        <v>217810.3</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="s">
@@ -7418,7 +7418,9 @@
       <c r="C454" t="n">
         <v>2002</v>
       </c>
-      <c r="D454"/>
+      <c r="D454" t="n">
+        <v>221210</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="s">
@@ -7430,7 +7432,9 @@
       <c r="C455" t="n">
         <v>2003</v>
       </c>
-      <c r="D455"/>
+      <c r="D455" t="n">
+        <v>220644</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="s">
@@ -7442,7 +7446,9 @@
       <c r="C456" t="n">
         <v>2004</v>
       </c>
-      <c r="D456"/>
+      <c r="D456" t="n">
+        <v>201372</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="s">
@@ -7455,7 +7461,7 @@
         <v>2005</v>
       </c>
       <c r="D457" t="n">
-        <v>1812350</v>
+        <v>150475.5</v>
       </c>
     </row>
     <row r="458">
@@ -7469,7 +7475,7 @@
         <v>2006</v>
       </c>
       <c r="D458" t="n">
-        <v>1742573.4</v>
+        <v>159178.8</v>
       </c>
     </row>
     <row r="459">
@@ -7483,7 +7489,7 @@
         <v>2007</v>
       </c>
       <c r="D459" t="n">
-        <v>1667326.46666667</v>
+        <v>89404</v>
       </c>
     </row>
     <row r="460">
@@ -7497,7 +7503,7 @@
         <v>2008</v>
       </c>
       <c r="D460" t="n">
-        <v>1586290</v>
+        <v>100411.2</v>
       </c>
     </row>
     <row r="461">
@@ -7511,7 +7517,7 @@
         <v>2009</v>
       </c>
       <c r="D461" t="n">
-        <v>1499144.8</v>
+        <v>127813.4</v>
       </c>
     </row>
     <row r="462">
@@ -7525,7 +7531,7 @@
         <v>2010</v>
       </c>
       <c r="D462" t="n">
-        <v>1405571.66666667</v>
+        <v>57581.8</v>
       </c>
     </row>
     <row r="463">
@@ -7539,7 +7545,7 @@
         <v>2011</v>
       </c>
       <c r="D463" t="n">
-        <v>1305251.4</v>
+        <v>62451.2</v>
       </c>
     </row>
     <row r="464">
@@ -7552,7 +7558,9 @@
       <c r="C464" t="n">
         <v>2012</v>
       </c>
-      <c r="D464"/>
+      <c r="D464" t="n">
+        <v>62802</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="s">
@@ -7589,7 +7597,7 @@
         <v>2000</v>
       </c>
       <c r="D467" t="n">
-        <v>211836</v>
+        <v>4644424.4</v>
       </c>
     </row>
     <row r="468">
@@ -7603,7 +7611,7 @@
         <v>2001</v>
       </c>
       <c r="D468" t="n">
-        <v>217810.3</v>
+        <v>4767552</v>
       </c>
     </row>
     <row r="469">
@@ -7617,7 +7625,7 @@
         <v>2002</v>
       </c>
       <c r="D469" t="n">
-        <v>221210</v>
+        <v>4894196.6</v>
       </c>
     </row>
     <row r="470">
@@ -7631,7 +7639,7 @@
         <v>2003</v>
       </c>
       <c r="D470" t="n">
-        <v>220644</v>
+        <v>5193411.06666667</v>
       </c>
     </row>
     <row r="471">
@@ -7645,7 +7653,7 @@
         <v>2004</v>
       </c>
       <c r="D471" t="n">
-        <v>201372</v>
+        <v>5506220.53333333</v>
       </c>
     </row>
     <row r="472">
@@ -7659,7 +7667,7 @@
         <v>2005</v>
       </c>
       <c r="D472" t="n">
-        <v>150475.5</v>
+        <v>5833028.5</v>
       </c>
     </row>
     <row r="473">
@@ -7673,7 +7681,7 @@
         <v>2006</v>
       </c>
       <c r="D473" t="n">
-        <v>159178.8</v>
+        <v>6150633.33333334</v>
       </c>
     </row>
     <row r="474">
@@ -7687,7 +7695,7 @@
         <v>2007</v>
       </c>
       <c r="D474" t="n">
-        <v>89404</v>
+        <v>6480746.09999999</v>
       </c>
     </row>
     <row r="475">
@@ -7701,7 +7709,7 @@
         <v>2008</v>
       </c>
       <c r="D475" t="n">
-        <v>100411.2</v>
+        <v>6824040</v>
       </c>
     </row>
     <row r="476">
@@ -7714,9 +7722,7 @@
       <c r="C476" t="n">
         <v>2009</v>
       </c>
-      <c r="D476" t="n">
-        <v>127813.4</v>
-      </c>
+      <c r="D476"/>
     </row>
     <row r="477">
       <c r="A477" t="s">
@@ -7728,9 +7734,7 @@
       <c r="C477" t="n">
         <v>2010</v>
       </c>
-      <c r="D477" t="n">
-        <v>57581.8</v>
-      </c>
+      <c r="D477"/>
     </row>
     <row r="478">
       <c r="A478" t="s">
@@ -7742,9 +7746,7 @@
       <c r="C478" t="n">
         <v>2011</v>
       </c>
-      <c r="D478" t="n">
-        <v>62451.2</v>
-      </c>
+      <c r="D478"/>
     </row>
     <row r="479">
       <c r="A479" t="s">
@@ -7756,9 +7758,7 @@
       <c r="C479" t="n">
         <v>2012</v>
       </c>
-      <c r="D479" t="n">
-        <v>62802</v>
-      </c>
+      <c r="D479"/>
     </row>
     <row r="480">
       <c r="A480" t="s">
@@ -31169,35 +31169,41 @@
         <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>4644424.4</v>
+        <v>4578980.26</v>
       </c>
       <c r="D22" t="n">
-        <v>4767552</v>
+        <v>4526326.97</v>
       </c>
       <c r="E22" t="n">
-        <v>4894196.6</v>
+        <v>4462892.44</v>
       </c>
       <c r="F22" t="n">
-        <v>5193411.06666667</v>
+        <v>4390187.62</v>
       </c>
       <c r="G22" t="n">
-        <v>5506220.53333333</v>
+        <v>4308927.3</v>
       </c>
       <c r="H22" t="n">
-        <v>5833028.5</v>
+        <v>4289947.2</v>
       </c>
       <c r="I22" t="n">
-        <v>6150633.33333334</v>
+        <v>4265758.5</v>
       </c>
       <c r="J22" t="n">
-        <v>6480746.09999999</v>
+        <v>4236825.4</v>
       </c>
       <c r="K22" t="n">
-        <v>6824040</v>
-      </c>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
+        <v>2912274.9</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1828819.2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1616062.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1467802.5</v>
+      </c>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
@@ -31210,41 +31216,33 @@
         <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>4578980.26</v>
+        <v>4565013.34</v>
       </c>
       <c r="D23" t="n">
-        <v>4526326.97</v>
+        <v>3971633.6</v>
       </c>
       <c r="E23" t="n">
-        <v>4462892.44</v>
+        <v>4158029.88333333</v>
       </c>
       <c r="F23" t="n">
-        <v>4390187.62</v>
+        <v>4351874.63333334</v>
       </c>
       <c r="G23" t="n">
-        <v>4308927.3</v>
+        <v>4553346.6</v>
       </c>
       <c r="H23" t="n">
-        <v>4289947.2</v>
+        <v>4762624.53333333</v>
       </c>
       <c r="I23" t="n">
-        <v>4265758.5</v>
+        <v>4979887.18333334</v>
       </c>
       <c r="J23" t="n">
-        <v>4236825.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2912274.9</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1828819.2</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1616062.5</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1467802.5</v>
-      </c>
+        <v>5205865.5</v>
+      </c>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
@@ -31256,29 +31254,25 @@
       <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="C24" t="n">
-        <v>4565013.34</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3971633.6</v>
-      </c>
+      <c r="C24"/>
+      <c r="D24"/>
       <c r="E24" t="n">
-        <v>4158029.88333333</v>
+        <v>96481.8</v>
       </c>
       <c r="F24" t="n">
-        <v>4351874.63333334</v>
+        <v>91345.2</v>
       </c>
       <c r="G24" t="n">
-        <v>4553346.6</v>
+        <v>85794</v>
       </c>
       <c r="H24" t="n">
-        <v>4762624.53333333</v>
+        <v>79705.6</v>
       </c>
       <c r="I24" t="n">
-        <v>4979887.18333334</v>
+        <v>73167.6</v>
       </c>
       <c r="J24" t="n">
-        <v>5205865.5</v>
+        <v>66404.8</v>
       </c>
       <c r="K24"/>
       <c r="L24"/>
@@ -31295,27 +31289,33 @@
       <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="C25"/>
-      <c r="D25"/>
+      <c r="C25" t="n">
+        <v>2476783.47272727</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2451946.98181818</v>
+      </c>
       <c r="E25" t="n">
-        <v>96481.8</v>
+        <v>2422694.68181818</v>
       </c>
       <c r="F25" t="n">
-        <v>91345.2</v>
+        <v>2391069</v>
       </c>
       <c r="G25" t="n">
-        <v>85794</v>
+        <v>2434139.4</v>
       </c>
       <c r="H25" t="n">
-        <v>79705.6</v>
+        <v>2479189.9</v>
       </c>
       <c r="I25" t="n">
-        <v>73167.6</v>
+        <v>2526854.4</v>
       </c>
       <c r="J25" t="n">
-        <v>66404.8</v>
-      </c>
-      <c r="K25"/>
+        <v>2577142.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2629435.5</v>
+      </c>
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
@@ -31330,36 +31330,38 @@
       <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="C26" t="n">
-        <v>2476783.47272727</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2451946.98181818</v>
-      </c>
+      <c r="C26"/>
+      <c r="D26"/>
       <c r="E26" t="n">
-        <v>2422694.68181818</v>
+        <v>4866625.8</v>
       </c>
       <c r="F26" t="n">
-        <v>2391069</v>
+        <v>5083937.77777778</v>
       </c>
       <c r="G26" t="n">
-        <v>2434139.4</v>
+        <v>4962061.44444444</v>
       </c>
       <c r="H26" t="n">
-        <v>2479189.9</v>
+        <v>4830713.33333334</v>
       </c>
       <c r="I26" t="n">
-        <v>2526854.4</v>
+        <v>4689976.2</v>
       </c>
       <c r="J26" t="n">
-        <v>2577142.5</v>
+        <v>4539341.64444445</v>
       </c>
       <c r="K26" t="n">
-        <v>2629435.5</v>
-      </c>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
+        <v>4377851.33333333</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4205503.28888889</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4022182.55555555</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3826565.6</v>
+      </c>
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
@@ -31371,37 +31373,41 @@
       <c r="B27" t="s">
         <v>55</v>
       </c>
-      <c r="C27"/>
-      <c r="D27"/>
+      <c r="C27" t="n">
+        <v>332596.8</v>
+      </c>
+      <c r="D27" t="n">
+        <v>314035.333333334</v>
+      </c>
       <c r="E27" t="n">
-        <v>4866625.8</v>
+        <v>293513.866666666</v>
       </c>
       <c r="F27" t="n">
-        <v>5083937.77777778</v>
+        <v>273997.4</v>
       </c>
       <c r="G27" t="n">
-        <v>4962061.44444444</v>
+        <v>241630.2</v>
       </c>
       <c r="H27" t="n">
-        <v>4830713.33333334</v>
+        <v>208528.5</v>
       </c>
       <c r="I27" t="n">
-        <v>4689976.2</v>
+        <v>174752.4</v>
       </c>
       <c r="J27" t="n">
-        <v>4539341.64444445</v>
+        <v>188157</v>
       </c>
       <c r="K27" t="n">
-        <v>4377851.33333333</v>
+        <v>201912.7</v>
       </c>
       <c r="L27" t="n">
-        <v>4205503.28888889</v>
+        <v>216025.6</v>
       </c>
       <c r="M27" t="n">
-        <v>4022182.55555555</v>
+        <v>180046.3</v>
       </c>
       <c r="N27" t="n">
-        <v>3826565.6</v>
+        <v>143224.8</v>
       </c>
       <c r="O27"/>
       <c r="P27"/>
@@ -31415,40 +31421,40 @@
         <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>332596.8</v>
+        <v>422730152.666666</v>
       </c>
       <c r="D28" t="n">
-        <v>314035.333333334</v>
+        <v>391899974.666667</v>
       </c>
       <c r="E28" t="n">
-        <v>293513.866666666</v>
+        <v>360439118</v>
       </c>
       <c r="F28" t="n">
-        <v>273997.4</v>
+        <v>309670967.666666</v>
       </c>
       <c r="G28" t="n">
-        <v>241630.2</v>
+        <v>258242826.666667</v>
       </c>
       <c r="H28" t="n">
-        <v>208528.5</v>
+        <v>206202212</v>
       </c>
       <c r="I28" t="n">
-        <v>174752.4</v>
+        <v>192264608</v>
       </c>
       <c r="J28" t="n">
-        <v>188157</v>
+        <v>178153935</v>
       </c>
       <c r="K28" t="n">
-        <v>201912.7</v>
+        <v>163877668</v>
       </c>
       <c r="L28" t="n">
-        <v>216025.6</v>
+        <v>143658925</v>
       </c>
       <c r="M28" t="n">
-        <v>180046.3</v>
+        <v>123229629</v>
       </c>
       <c r="N28" t="n">
-        <v>143224.8</v>
+        <v>84344110</v>
       </c>
       <c r="O28"/>
       <c r="P28"/>
@@ -31462,42 +31468,44 @@
         <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>422730152.666666</v>
+        <v>7192836</v>
       </c>
       <c r="D29" t="n">
-        <v>391899974.666667</v>
+        <v>7289380.4</v>
       </c>
       <c r="E29" t="n">
-        <v>360439118</v>
+        <v>4604050.6</v>
       </c>
       <c r="F29" t="n">
-        <v>309670967.666666</v>
+        <v>4327186.6</v>
       </c>
       <c r="G29" t="n">
-        <v>258242826.666667</v>
+        <v>3817356.8</v>
       </c>
       <c r="H29" t="n">
-        <v>206202212</v>
+        <v>3375364.3</v>
       </c>
       <c r="I29" t="n">
-        <v>192264608</v>
+        <v>4792022.4</v>
       </c>
       <c r="J29" t="n">
-        <v>178153935</v>
+        <v>3883146.8</v>
       </c>
       <c r="K29" t="n">
-        <v>163877668</v>
+        <v>3778335</v>
       </c>
       <c r="L29" t="n">
-        <v>143658925</v>
+        <v>3265475.4</v>
       </c>
       <c r="M29" t="n">
-        <v>123229629</v>
+        <v>2807967</v>
       </c>
       <c r="N29" t="n">
-        <v>84344110</v>
-      </c>
-      <c r="O29"/>
+        <v>2279227.5</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2622566.6</v>
+      </c>
       <c r="P29"/>
       <c r="Q29"/>
     </row>
@@ -31508,45 +31516,21 @@
       <c r="B30" t="s">
         <v>61</v>
       </c>
-      <c r="C30" t="n">
-        <v>7192836</v>
-      </c>
-      <c r="D30" t="n">
-        <v>7289380.4</v>
-      </c>
-      <c r="E30" t="n">
-        <v>4604050.6</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4327186.6</v>
-      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
       <c r="G30" t="n">
-        <v>3817356.8</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3375364.3</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4792022.4</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3883146.8</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3778335</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3265475.4</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2807967</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2279227.5</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2622566.6</v>
-      </c>
+        <v>273432.3</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
     </row>
@@ -31561,16 +31545,28 @@
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
-      <c r="G31" t="n">
-        <v>273432.3</v>
-      </c>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
+      <c r="G31"/>
+      <c r="H31" t="n">
+        <v>1812350</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1742573.4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1667326.46666667</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1586290</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1499144.8</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1405571.66666667</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1305251.4</v>
+      </c>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
@@ -31582,33 +31578,45 @@
       <c r="B32" t="s">
         <v>65</v>
       </c>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
+      <c r="C32" t="n">
+        <v>211836</v>
+      </c>
+      <c r="D32" t="n">
+        <v>217810.3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>221210</v>
+      </c>
+      <c r="F32" t="n">
+        <v>220644</v>
+      </c>
+      <c r="G32" t="n">
+        <v>201372</v>
+      </c>
       <c r="H32" t="n">
-        <v>1812350</v>
+        <v>150475.5</v>
       </c>
       <c r="I32" t="n">
-        <v>1742573.4</v>
+        <v>159178.8</v>
       </c>
       <c r="J32" t="n">
-        <v>1667326.46666667</v>
+        <v>89404</v>
       </c>
       <c r="K32" t="n">
-        <v>1586290</v>
+        <v>100411.2</v>
       </c>
       <c r="L32" t="n">
-        <v>1499144.8</v>
+        <v>127813.4</v>
       </c>
       <c r="M32" t="n">
-        <v>1405571.66666667</v>
+        <v>57581.8</v>
       </c>
       <c r="N32" t="n">
-        <v>1305251.4</v>
-      </c>
-      <c r="O32"/>
+        <v>62451.2</v>
+      </c>
+      <c r="O32" t="n">
+        <v>62802</v>
+      </c>
       <c r="P32"/>
       <c r="Q32"/>
     </row>
@@ -31620,44 +31628,36 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>211836</v>
+        <v>4644424.4</v>
       </c>
       <c r="D33" t="n">
-        <v>217810.3</v>
+        <v>4767552</v>
       </c>
       <c r="E33" t="n">
-        <v>221210</v>
+        <v>4894196.6</v>
       </c>
       <c r="F33" t="n">
-        <v>220644</v>
+        <v>5193411.06666667</v>
       </c>
       <c r="G33" t="n">
-        <v>201372</v>
+        <v>5506220.53333333</v>
       </c>
       <c r="H33" t="n">
-        <v>150475.5</v>
+        <v>5833028.5</v>
       </c>
       <c r="I33" t="n">
-        <v>159178.8</v>
+        <v>6150633.33333334</v>
       </c>
       <c r="J33" t="n">
-        <v>89404</v>
+        <v>6480746.09999999</v>
       </c>
       <c r="K33" t="n">
-        <v>100411.2</v>
-      </c>
-      <c r="L33" t="n">
-        <v>127813.4</v>
-      </c>
-      <c r="M33" t="n">
-        <v>57581.8</v>
-      </c>
-      <c r="N33" t="n">
-        <v>62451.2</v>
-      </c>
-      <c r="O33" t="n">
-        <v>62802</v>
-      </c>
+        <v>6824040</v>
+      </c>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
     </row>
